--- a/public/local/fixtures/calculator/Технадзор контроль калькуляторы.xlsx
+++ b/public/local/fixtures/calculator/Технадзор контроль калькуляторы.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhne/project-extras/imarket/expert/src/public/local/fixtures/calculator/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37480" windowHeight="23540"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="37480" windowHeight="23540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Технадзор одного здания" sheetId="3" r:id="rId1"/>
@@ -310,9 +315,6 @@
     <t>Объекты находятся в одном месте</t>
   </si>
   <si>
-    <t>Расстояние между объектами 0,5-3км</t>
-  </si>
-  <si>
     <t>Зона действия общественного транспорта</t>
   </si>
   <si>
@@ -526,9 +528,6 @@
     <t>Комплекс офисных зданий</t>
   </si>
   <si>
-    <t>Расстояние между объектами не более 0,5км</t>
-  </si>
-  <si>
     <t>СТОИМОСТЬ</t>
   </si>
   <si>
@@ -590,6 +589,12 @@
   </si>
   <si>
     <t>Транспортная доступность*</t>
+  </si>
+  <si>
+    <t>Расстояние между объектами не более 0,5 км</t>
+  </si>
+  <si>
+    <t>Расстояние между объектами 0,5-3 км</t>
   </si>
 </sst>
 </file>
@@ -1681,7 +1686,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1691,11 +1696,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="30"/>
     <col min="2" max="2" width="53.6640625" customWidth="1"/>
@@ -1712,32 +1717,32 @@
     <col min="30" max="32" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C1" s="15"/>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C2" s="15"/>
     </row>
-    <row r="3" spans="1:32" ht="15" thickBot="1">
+    <row r="3" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="15"/>
     </row>
-    <row r="4" spans="1:32" ht="15">
+    <row r="4" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:32" ht="15" thickBot="1">
+    <row r="5" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="15"/>
     </row>
-    <row r="6" spans="1:32" ht="15">
+    <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C6" s="15"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="30">
         <v>1</v>
       </c>
@@ -1748,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="8" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="2"/>
       <c r="C8" s="15"/>
@@ -1756,17 +1761,17 @@
       <c r="AE8" s="13"/>
       <c r="AF8" s="13"/>
     </row>
-    <row r="9" spans="1:32" s="16" customFormat="1" ht="15">
+    <row r="9" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="30"/>
       <c r="B9" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C9" s="15"/>
       <c r="AD9" s="13"/>
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" s="16" customFormat="1">
+    <row r="10" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -1780,7 +1785,7 @@
       <c r="AE10" s="13"/>
       <c r="AF10" s="13"/>
     </row>
-    <row r="11" spans="1:32" s="16" customFormat="1">
+    <row r="11" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>2</v>
       </c>
@@ -1794,7 +1799,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32" s="16" customFormat="1">
+    <row r="12" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="30">
         <v>3</v>
       </c>
@@ -1808,7 +1813,7 @@
       <c r="AE12" s="13"/>
       <c r="AF12" s="13"/>
     </row>
-    <row r="13" spans="1:32" s="16" customFormat="1">
+    <row r="13" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="30">
         <v>4</v>
       </c>
@@ -1822,7 +1827,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" s="16" customFormat="1">
+    <row r="14" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="30">
         <v>5</v>
       </c>
@@ -1836,7 +1841,7 @@
       <c r="AE14" s="13"/>
       <c r="AF14" s="13"/>
     </row>
-    <row r="15" spans="1:32" s="16" customFormat="1">
+    <row r="15" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="30">
         <v>6</v>
       </c>
@@ -1850,7 +1855,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32" s="16" customFormat="1">
+    <row r="16" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="30">
         <v>7</v>
       </c>
@@ -1864,7 +1869,7 @@
       <c r="AE16" s="13"/>
       <c r="AF16" s="13"/>
     </row>
-    <row r="17" spans="1:32" s="16" customFormat="1">
+    <row r="17" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30">
         <v>8</v>
       </c>
@@ -1878,7 +1883,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32" s="16" customFormat="1">
+    <row r="18" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="30">
         <v>9</v>
       </c>
@@ -1892,7 +1897,7 @@
       <c r="AE18" s="13"/>
       <c r="AF18" s="13"/>
     </row>
-    <row r="19" spans="1:32" s="16" customFormat="1">
+    <row r="19" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="30">
         <v>10</v>
       </c>
@@ -1906,7 +1911,7 @@
       <c r="AE19" s="13"/>
       <c r="AF19" s="13"/>
     </row>
-    <row r="20" spans="1:32" s="16" customFormat="1">
+    <row r="20" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30">
         <v>11</v>
       </c>
@@ -1920,7 +1925,7 @@
       <c r="AE20" s="13"/>
       <c r="AF20" s="13"/>
     </row>
-    <row r="21" spans="1:32" s="16" customFormat="1">
+    <row r="21" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30">
         <v>12</v>
       </c>
@@ -1934,7 +1939,7 @@
       <c r="AE21" s="13"/>
       <c r="AF21" s="13"/>
     </row>
-    <row r="22" spans="1:32" s="16" customFormat="1">
+    <row r="22" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="30">
         <v>13</v>
       </c>
@@ -1948,7 +1953,7 @@
       <c r="AE22" s="13"/>
       <c r="AF22" s="13"/>
     </row>
-    <row r="23" spans="1:32" s="16" customFormat="1">
+    <row r="23" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="30">
         <v>14</v>
       </c>
@@ -1962,7 +1967,7 @@
       <c r="AE23" s="13"/>
       <c r="AF23" s="13"/>
     </row>
-    <row r="24" spans="1:32" s="16" customFormat="1">
+    <row r="24" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="30">
         <v>15</v>
       </c>
@@ -1976,7 +1981,7 @@
       <c r="AE24" s="13"/>
       <c r="AF24" s="13"/>
     </row>
-    <row r="25" spans="1:32" s="16" customFormat="1">
+    <row r="25" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="30">
         <v>16</v>
       </c>
@@ -1990,7 +1995,7 @@
       <c r="AE25" s="13"/>
       <c r="AF25" s="13"/>
     </row>
-    <row r="26" spans="1:32" s="16" customFormat="1">
+    <row r="26" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="30">
         <v>17</v>
       </c>
@@ -2004,7 +2009,7 @@
       <c r="AE26" s="13"/>
       <c r="AF26" s="13"/>
     </row>
-    <row r="27" spans="1:32" s="16" customFormat="1">
+    <row r="27" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="30">
         <v>18</v>
       </c>
@@ -2018,7 +2023,7 @@
       <c r="AE27" s="13"/>
       <c r="AF27" s="13"/>
     </row>
-    <row r="28" spans="1:32" s="16" customFormat="1">
+    <row r="28" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="30">
         <v>19</v>
       </c>
@@ -2032,7 +2037,7 @@
       <c r="AE28" s="13"/>
       <c r="AF28" s="13"/>
     </row>
-    <row r="29" spans="1:32" s="16" customFormat="1">
+    <row r="29" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="30">
         <v>20</v>
       </c>
@@ -2046,7 +2051,7 @@
       <c r="AE29" s="13"/>
       <c r="AF29" s="13"/>
     </row>
-    <row r="30" spans="1:32" s="16" customFormat="1">
+    <row r="30" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="30">
         <v>21</v>
       </c>
@@ -2060,7 +2065,7 @@
       <c r="AE30" s="13"/>
       <c r="AF30" s="13"/>
     </row>
-    <row r="31" spans="1:32" s="16" customFormat="1">
+    <row r="31" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30">
         <v>22</v>
       </c>
@@ -2074,7 +2079,7 @@
       <c r="AE31" s="13"/>
       <c r="AF31" s="13"/>
     </row>
-    <row r="32" spans="1:32" s="16" customFormat="1">
+    <row r="32" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30">
         <v>23</v>
       </c>
@@ -2088,7 +2093,7 @@
       <c r="AE32" s="13"/>
       <c r="AF32" s="13"/>
     </row>
-    <row r="33" spans="1:32" s="16" customFormat="1">
+    <row r="33" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="30">
         <v>24</v>
       </c>
@@ -2102,7 +2107,7 @@
       <c r="AE33" s="13"/>
       <c r="AF33" s="13"/>
     </row>
-    <row r="34" spans="1:32" s="16" customFormat="1">
+    <row r="34" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="30">
         <v>25</v>
       </c>
@@ -2116,7 +2121,7 @@
       <c r="AE34" s="13"/>
       <c r="AF34" s="13"/>
     </row>
-    <row r="35" spans="1:32" s="16" customFormat="1">
+    <row r="35" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="30">
         <v>26</v>
       </c>
@@ -2130,7 +2135,7 @@
       <c r="AE35" s="13"/>
       <c r="AF35" s="13"/>
     </row>
-    <row r="36" spans="1:32" s="16" customFormat="1">
+    <row r="36" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="30">
         <v>27</v>
       </c>
@@ -2144,7 +2149,7 @@
       <c r="AE36" s="13"/>
       <c r="AF36" s="13"/>
     </row>
-    <row r="37" spans="1:32" s="16" customFormat="1">
+    <row r="37" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="30">
         <v>28</v>
       </c>
@@ -2158,7 +2163,7 @@
       <c r="AE37" s="13"/>
       <c r="AF37" s="13"/>
     </row>
-    <row r="38" spans="1:32" s="16" customFormat="1">
+    <row r="38" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="30">
         <v>29</v>
       </c>
@@ -2172,7 +2177,7 @@
       <c r="AE38" s="13"/>
       <c r="AF38" s="13"/>
     </row>
-    <row r="39" spans="1:32" s="16" customFormat="1">
+    <row r="39" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="30">
         <v>30</v>
       </c>
@@ -2186,7 +2191,7 @@
       <c r="AE39" s="13"/>
       <c r="AF39" s="13"/>
     </row>
-    <row r="40" spans="1:32" s="16" customFormat="1">
+    <row r="40" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="30">
         <v>31</v>
       </c>
@@ -2200,7 +2205,7 @@
       <c r="AE40" s="13"/>
       <c r="AF40" s="13"/>
     </row>
-    <row r="41" spans="1:32" s="16" customFormat="1">
+    <row r="41" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="30">
         <v>32</v>
       </c>
@@ -2214,7 +2219,7 @@
       <c r="AE41" s="13"/>
       <c r="AF41" s="13"/>
     </row>
-    <row r="42" spans="1:32" s="16" customFormat="1">
+    <row r="42" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="30">
         <v>33</v>
       </c>
@@ -2228,7 +2233,7 @@
       <c r="AE42" s="13"/>
       <c r="AF42" s="13"/>
     </row>
-    <row r="43" spans="1:32" s="16" customFormat="1">
+    <row r="43" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="30">
         <v>34</v>
       </c>
@@ -2242,7 +2247,7 @@
       <c r="AE43" s="13"/>
       <c r="AF43" s="13"/>
     </row>
-    <row r="44" spans="1:32" s="16" customFormat="1">
+    <row r="44" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="30">
         <v>35</v>
       </c>
@@ -2256,7 +2261,7 @@
       <c r="AE44" s="13"/>
       <c r="AF44" s="13"/>
     </row>
-    <row r="45" spans="1:32" s="16" customFormat="1">
+    <row r="45" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="30">
         <v>36</v>
       </c>
@@ -2270,7 +2275,7 @@
       <c r="AE45" s="13"/>
       <c r="AF45" s="13"/>
     </row>
-    <row r="46" spans="1:32" s="16" customFormat="1">
+    <row r="46" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="30">
         <v>37</v>
       </c>
@@ -2284,7 +2289,7 @@
       <c r="AE46" s="13"/>
       <c r="AF46" s="13"/>
     </row>
-    <row r="47" spans="1:32" s="16" customFormat="1">
+    <row r="47" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="30">
         <v>38</v>
       </c>
@@ -2298,7 +2303,7 @@
       <c r="AE47" s="13"/>
       <c r="AF47" s="13"/>
     </row>
-    <row r="48" spans="1:32" s="16" customFormat="1">
+    <row r="48" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="30">
         <v>39</v>
       </c>
@@ -2312,7 +2317,7 @@
       <c r="AE48" s="13"/>
       <c r="AF48" s="13"/>
     </row>
-    <row r="49" spans="1:32" s="16" customFormat="1">
+    <row r="49" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="30">
         <v>40</v>
       </c>
@@ -2326,7 +2331,7 @@
       <c r="AE49" s="13"/>
       <c r="AF49" s="13"/>
     </row>
-    <row r="50" spans="1:32" s="16" customFormat="1">
+    <row r="50" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="30">
         <v>41</v>
       </c>
@@ -2340,7 +2345,7 @@
       <c r="AE50" s="13"/>
       <c r="AF50" s="13"/>
     </row>
-    <row r="51" spans="1:32" s="16" customFormat="1">
+    <row r="51" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="30">
         <v>42</v>
       </c>
@@ -2354,7 +2359,7 @@
       <c r="AE51" s="13"/>
       <c r="AF51" s="13"/>
     </row>
-    <row r="52" spans="1:32" s="16" customFormat="1">
+    <row r="52" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="30">
         <v>43</v>
       </c>
@@ -2368,7 +2373,7 @@
       <c r="AE52" s="13"/>
       <c r="AF52" s="13"/>
     </row>
-    <row r="53" spans="1:32" s="16" customFormat="1">
+    <row r="53" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="30">
         <v>44</v>
       </c>
@@ -2382,12 +2387,12 @@
       <c r="AE53" s="13"/>
       <c r="AF53" s="13"/>
     </row>
-    <row r="54" spans="1:32" s="16" customFormat="1">
+    <row r="54" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="30">
         <v>45</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C54" s="15">
         <v>2.5</v>
@@ -2396,7 +2401,7 @@
       <c r="AE54" s="13"/>
       <c r="AF54" s="13"/>
     </row>
-    <row r="55" spans="1:32" s="16" customFormat="1">
+    <row r="55" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="30">
         <v>46</v>
       </c>
@@ -2410,7 +2415,7 @@
       <c r="AE55" s="13"/>
       <c r="AF55" s="13"/>
     </row>
-    <row r="56" spans="1:32" s="16" customFormat="1">
+    <row r="56" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="30">
         <v>47</v>
       </c>
@@ -2424,7 +2429,7 @@
       <c r="AE56" s="13"/>
       <c r="AF56" s="13"/>
     </row>
-    <row r="57" spans="1:32" s="16" customFormat="1">
+    <row r="57" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="30">
         <v>48</v>
       </c>
@@ -2438,7 +2443,7 @@
       <c r="AE57" s="13"/>
       <c r="AF57" s="13"/>
     </row>
-    <row r="58" spans="1:32" s="16" customFormat="1">
+    <row r="58" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="30">
         <v>49</v>
       </c>
@@ -2452,7 +2457,7 @@
       <c r="AE58" s="13"/>
       <c r="AF58" s="13"/>
     </row>
-    <row r="59" spans="1:32" s="16" customFormat="1">
+    <row r="59" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="30">
         <v>50</v>
       </c>
@@ -2466,7 +2471,7 @@
       <c r="AE59" s="13"/>
       <c r="AF59" s="13"/>
     </row>
-    <row r="60" spans="1:32" s="16" customFormat="1">
+    <row r="60" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="30">
         <v>51</v>
       </c>
@@ -2480,7 +2485,7 @@
       <c r="AE60" s="13"/>
       <c r="AF60" s="13"/>
     </row>
-    <row r="61" spans="1:32" s="16" customFormat="1">
+    <row r="61" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="30">
         <v>52</v>
       </c>
@@ -2494,7 +2499,7 @@
       <c r="AE61" s="13"/>
       <c r="AF61" s="13"/>
     </row>
-    <row r="62" spans="1:32" s="16" customFormat="1">
+    <row r="62" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="30">
         <v>53</v>
       </c>
@@ -2508,7 +2513,7 @@
       <c r="AE62" s="13"/>
       <c r="AF62" s="13"/>
     </row>
-    <row r="63" spans="1:32" s="16" customFormat="1">
+    <row r="63" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="30">
         <v>54</v>
       </c>
@@ -2522,7 +2527,7 @@
       <c r="AE63" s="13"/>
       <c r="AF63" s="13"/>
     </row>
-    <row r="64" spans="1:32" s="16" customFormat="1">
+    <row r="64" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="30">
         <v>55</v>
       </c>
@@ -2536,12 +2541,12 @@
       <c r="AE64" s="13"/>
       <c r="AF64" s="13"/>
     </row>
-    <row r="65" spans="1:32" s="16" customFormat="1">
+    <row r="65" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="30">
         <v>56</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C65" s="15">
         <v>2.5</v>
@@ -2550,7 +2555,7 @@
       <c r="AE65" s="13"/>
       <c r="AF65" s="13"/>
     </row>
-    <row r="66" spans="1:32" s="16" customFormat="1">
+    <row r="66" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="30">
         <v>57</v>
       </c>
@@ -2564,7 +2569,7 @@
       <c r="AE66" s="13"/>
       <c r="AF66" s="13"/>
     </row>
-    <row r="67" spans="1:32" s="16" customFormat="1">
+    <row r="67" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="30">
         <v>58</v>
       </c>
@@ -2578,7 +2583,7 @@
       <c r="AE67" s="13"/>
       <c r="AF67" s="13"/>
     </row>
-    <row r="68" spans="1:32" s="16" customFormat="1">
+    <row r="68" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="30">
         <v>59</v>
       </c>
@@ -2592,7 +2597,7 @@
       <c r="AE68" s="13"/>
       <c r="AF68" s="13"/>
     </row>
-    <row r="69" spans="1:32" s="16" customFormat="1">
+    <row r="69" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="30">
         <v>60</v>
       </c>
@@ -2606,7 +2611,7 @@
       <c r="AE69" s="13"/>
       <c r="AF69" s="13"/>
     </row>
-    <row r="70" spans="1:32" s="16" customFormat="1">
+    <row r="70" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="30">
         <v>61</v>
       </c>
@@ -2620,7 +2625,7 @@
       <c r="AE70" s="13"/>
       <c r="AF70" s="13"/>
     </row>
-    <row r="71" spans="1:32" s="16" customFormat="1">
+    <row r="71" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="30">
         <v>62</v>
       </c>
@@ -2634,7 +2639,7 @@
       <c r="AE71" s="13"/>
       <c r="AF71" s="13"/>
     </row>
-    <row r="72" spans="1:32" s="16" customFormat="1">
+    <row r="72" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="30">
         <v>63</v>
       </c>
@@ -2648,7 +2653,7 @@
       <c r="AE72" s="13"/>
       <c r="AF72" s="13"/>
     </row>
-    <row r="73" spans="1:32" s="16" customFormat="1">
+    <row r="73" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="30">
         <v>64</v>
       </c>
@@ -2662,7 +2667,7 @@
       <c r="AE73" s="13"/>
       <c r="AF73" s="13"/>
     </row>
-    <row r="74" spans="1:32" s="16" customFormat="1">
+    <row r="74" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="30">
         <v>65</v>
       </c>
@@ -2676,7 +2681,7 @@
       <c r="AE74" s="13"/>
       <c r="AF74" s="13"/>
     </row>
-    <row r="75" spans="1:32" s="16" customFormat="1">
+    <row r="75" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="30">
         <v>66</v>
       </c>
@@ -2690,7 +2695,7 @@
       <c r="AE75" s="13"/>
       <c r="AF75" s="13"/>
     </row>
-    <row r="76" spans="1:32" s="16" customFormat="1">
+    <row r="76" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="30">
         <v>67</v>
       </c>
@@ -2704,7 +2709,7 @@
       <c r="AE76" s="13"/>
       <c r="AF76" s="13"/>
     </row>
-    <row r="77" spans="1:32" s="16" customFormat="1">
+    <row r="77" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="30">
         <v>68</v>
       </c>
@@ -2718,7 +2723,7 @@
       <c r="AE77" s="13"/>
       <c r="AF77" s="13"/>
     </row>
-    <row r="78" spans="1:32" s="16" customFormat="1">
+    <row r="78" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="30">
         <v>69</v>
       </c>
@@ -2732,7 +2737,7 @@
       <c r="AE78" s="13"/>
       <c r="AF78" s="13"/>
     </row>
-    <row r="79" spans="1:32" s="16" customFormat="1">
+    <row r="79" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="30">
         <v>70</v>
       </c>
@@ -2746,7 +2751,7 @@
       <c r="AE79" s="13"/>
       <c r="AF79" s="13"/>
     </row>
-    <row r="80" spans="1:32" s="16" customFormat="1">
+    <row r="80" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="30">
         <v>71</v>
       </c>
@@ -2760,7 +2765,7 @@
       <c r="AE80" s="13"/>
       <c r="AF80" s="13"/>
     </row>
-    <row r="81" spans="1:32" s="16" customFormat="1">
+    <row r="81" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="30">
         <v>72</v>
       </c>
@@ -2774,7 +2779,7 @@
       <c r="AE81" s="13"/>
       <c r="AF81" s="13"/>
     </row>
-    <row r="82" spans="1:32" s="16" customFormat="1">
+    <row r="82" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="30">
         <v>73</v>
       </c>
@@ -2788,7 +2793,7 @@
       <c r="AE82" s="13"/>
       <c r="AF82" s="13"/>
     </row>
-    <row r="83" spans="1:32" s="16" customFormat="1">
+    <row r="83" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="30">
         <v>74</v>
       </c>
@@ -2802,7 +2807,7 @@
       <c r="AE83" s="13"/>
       <c r="AF83" s="13"/>
     </row>
-    <row r="84" spans="1:32" s="16" customFormat="1">
+    <row r="84" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="30">
         <v>75</v>
       </c>
@@ -2816,7 +2821,7 @@
       <c r="AE84" s="13"/>
       <c r="AF84" s="13"/>
     </row>
-    <row r="85" spans="1:32" s="16" customFormat="1">
+    <row r="85" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="30">
         <v>76</v>
       </c>
@@ -2830,7 +2835,7 @@
       <c r="AE85" s="13"/>
       <c r="AF85" s="13"/>
     </row>
-    <row r="86" spans="1:32" s="16" customFormat="1">
+    <row r="86" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="30">
         <v>77</v>
       </c>
@@ -2844,7 +2849,7 @@
       <c r="AE86" s="13"/>
       <c r="AF86" s="13"/>
     </row>
-    <row r="87" spans="1:32" s="16" customFormat="1">
+    <row r="87" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="30">
         <v>78</v>
       </c>
@@ -2858,7 +2863,7 @@
       <c r="AE87" s="13"/>
       <c r="AF87" s="13"/>
     </row>
-    <row r="88" spans="1:32" s="16" customFormat="1">
+    <row r="88" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="30">
         <v>79</v>
       </c>
@@ -2872,7 +2877,7 @@
       <c r="AE88" s="13"/>
       <c r="AF88" s="13"/>
     </row>
-    <row r="89" spans="1:32" s="16" customFormat="1">
+    <row r="89" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="30">
         <v>80</v>
       </c>
@@ -2886,7 +2891,7 @@
       <c r="AE89" s="13"/>
       <c r="AF89" s="13"/>
     </row>
-    <row r="90" spans="1:32" s="16" customFormat="1">
+    <row r="90" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="30">
         <v>81</v>
       </c>
@@ -2900,7 +2905,7 @@
       <c r="AE90" s="13"/>
       <c r="AF90" s="13"/>
     </row>
-    <row r="91" spans="1:32" s="16" customFormat="1">
+    <row r="91" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="30">
         <v>82</v>
       </c>
@@ -2914,7 +2919,7 @@
       <c r="AE91" s="13"/>
       <c r="AF91" s="13"/>
     </row>
-    <row r="92" spans="1:32" s="16" customFormat="1">
+    <row r="92" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="30">
         <v>83</v>
       </c>
@@ -2928,7 +2933,7 @@
       <c r="AE92" s="13"/>
       <c r="AF92" s="13"/>
     </row>
-    <row r="93" spans="1:32" s="16" customFormat="1">
+    <row r="93" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="30">
         <v>84</v>
       </c>
@@ -2942,7 +2947,7 @@
       <c r="AE93" s="13"/>
       <c r="AF93" s="13"/>
     </row>
-    <row r="94" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="94" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="30"/>
       <c r="B94" s="2"/>
       <c r="C94" s="15"/>
@@ -2950,7 +2955,7 @@
       <c r="AE94" s="13"/>
       <c r="AF94" s="13"/>
     </row>
-    <row r="95" spans="1:32" s="16" customFormat="1" ht="15">
+    <row r="95" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="30"/>
       <c r="B95" s="1" t="s">
         <v>0</v>
@@ -2960,7 +2965,7 @@
       <c r="AE95" s="13"/>
       <c r="AF95" s="13"/>
     </row>
-    <row r="96" spans="1:32" s="25" customFormat="1" ht="16" thickBot="1">
+    <row r="96" spans="1:32" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="31"/>
       <c r="B96" s="23"/>
       <c r="C96" s="24"/>
@@ -2968,22 +2973,22 @@
       <c r="AE96" s="26"/>
       <c r="AF96" s="26"/>
     </row>
-    <row r="97" spans="1:32" s="16" customFormat="1" ht="15">
+    <row r="97" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="30"/>
       <c r="B97" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C97" s="15"/>
       <c r="AD97" s="13"/>
       <c r="AE97" s="13"/>
       <c r="AF97" s="13"/>
     </row>
-    <row r="98" spans="1:32" s="16" customFormat="1">
+    <row r="98" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="30">
         <v>1</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C98" s="15">
         <v>1</v>
@@ -2992,12 +2997,12 @@
       <c r="AE98" s="13"/>
       <c r="AF98" s="13"/>
     </row>
-    <row r="99" spans="1:32" s="16" customFormat="1">
+    <row r="99" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="30">
         <v>2</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C99" s="15">
         <v>0.95</v>
@@ -3006,12 +3011,12 @@
       <c r="AE99" s="13"/>
       <c r="AF99" s="13"/>
     </row>
-    <row r="100" spans="1:32" s="16" customFormat="1">
+    <row r="100" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="30">
         <v>3</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C100" s="15">
         <v>0.85</v>
@@ -3020,12 +3025,12 @@
       <c r="AE100" s="13"/>
       <c r="AF100" s="13"/>
     </row>
-    <row r="101" spans="1:32" s="16" customFormat="1">
+    <row r="101" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="30">
         <v>4</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C101" s="15">
         <v>0.9</v>
@@ -3034,12 +3039,12 @@
       <c r="AE101" s="13"/>
       <c r="AF101" s="13"/>
     </row>
-    <row r="102" spans="1:32" s="16" customFormat="1">
+    <row r="102" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="30">
         <v>5</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C102" s="15">
         <v>0.8</v>
@@ -3048,12 +3053,12 @@
       <c r="AE102" s="13"/>
       <c r="AF102" s="13"/>
     </row>
-    <row r="103" spans="1:32" s="16" customFormat="1">
+    <row r="103" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="30">
         <v>6</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C103" s="15">
         <v>0.8</v>
@@ -3062,12 +3067,12 @@
       <c r="AE103" s="13"/>
       <c r="AF103" s="13"/>
     </row>
-    <row r="104" spans="1:32" s="16" customFormat="1">
+    <row r="104" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="30">
         <v>7</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C104" s="15">
         <v>0.8</v>
@@ -3076,7 +3081,7 @@
       <c r="AE104" s="13"/>
       <c r="AF104" s="13"/>
     </row>
-    <row r="105" spans="1:32" s="16" customFormat="1">
+    <row r="105" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="30">
         <v>8</v>
       </c>
@@ -3090,7 +3095,7 @@
       <c r="AE105" s="13"/>
       <c r="AF105" s="13"/>
     </row>
-    <row r="106" spans="1:32" s="16" customFormat="1">
+    <row r="106" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="30">
         <v>9</v>
       </c>
@@ -3104,7 +3109,7 @@
       <c r="AE106" s="13"/>
       <c r="AF106" s="13"/>
     </row>
-    <row r="107" spans="1:32" s="16" customFormat="1">
+    <row r="107" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="30">
         <v>10</v>
       </c>
@@ -3118,7 +3123,7 @@
       <c r="AE107" s="13"/>
       <c r="AF107" s="13"/>
     </row>
-    <row r="108" spans="1:32" s="16" customFormat="1">
+    <row r="108" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="30">
         <v>11</v>
       </c>
@@ -3132,7 +3137,7 @@
       <c r="AE108" s="13"/>
       <c r="AF108" s="13"/>
     </row>
-    <row r="109" spans="1:32" s="16" customFormat="1">
+    <row r="109" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="30">
         <v>12</v>
       </c>
@@ -3146,7 +3151,7 @@
       <c r="AE109" s="13"/>
       <c r="AF109" s="13"/>
     </row>
-    <row r="110" spans="1:32" s="16" customFormat="1">
+    <row r="110" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="30">
         <v>13</v>
       </c>
@@ -3160,7 +3165,7 @@
       <c r="AE110" s="13"/>
       <c r="AF110" s="13"/>
     </row>
-    <row r="111" spans="1:32" s="16" customFormat="1">
+    <row r="111" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="30">
         <v>14</v>
       </c>
@@ -3174,7 +3179,7 @@
       <c r="AE111" s="13"/>
       <c r="AF111" s="13"/>
     </row>
-    <row r="112" spans="1:32" s="16" customFormat="1">
+    <row r="112" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="30">
         <v>15</v>
       </c>
@@ -3188,7 +3193,7 @@
       <c r="AE112" s="13"/>
       <c r="AF112" s="13"/>
     </row>
-    <row r="113" spans="1:32" s="16" customFormat="1">
+    <row r="113" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="30">
         <v>16</v>
       </c>
@@ -3202,12 +3207,12 @@
       <c r="AE113" s="13"/>
       <c r="AF113" s="13"/>
     </row>
-    <row r="114" spans="1:32" s="16" customFormat="1">
+    <row r="114" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="30">
         <v>17</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C114" s="15">
         <v>1</v>
@@ -3216,7 +3221,7 @@
       <c r="AE114" s="13"/>
       <c r="AF114" s="13"/>
     </row>
-    <row r="115" spans="1:32" s="16" customFormat="1">
+    <row r="115" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="30">
         <v>18</v>
       </c>
@@ -3230,7 +3235,7 @@
       <c r="AE115" s="13"/>
       <c r="AF115" s="13"/>
     </row>
-    <row r="116" spans="1:32" s="16" customFormat="1">
+    <row r="116" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="30">
         <v>19</v>
       </c>
@@ -3244,7 +3249,7 @@
       <c r="AE116" s="13"/>
       <c r="AF116" s="13"/>
     </row>
-    <row r="117" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="117" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="30"/>
       <c r="B117" s="2"/>
       <c r="C117" s="15"/>
@@ -3252,22 +3257,22 @@
       <c r="AE117" s="13"/>
       <c r="AF117" s="13"/>
     </row>
-    <row r="118" spans="1:32" s="16" customFormat="1" ht="15">
+    <row r="118" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="30"/>
       <c r="B118" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C118" s="15"/>
       <c r="AD118" s="13"/>
       <c r="AE118" s="13"/>
       <c r="AF118" s="13"/>
     </row>
-    <row r="119" spans="1:32" s="16" customFormat="1">
+    <row r="119" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="30">
         <v>1</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C119" s="15">
         <v>1</v>
@@ -3276,12 +3281,12 @@
       <c r="AE119" s="13"/>
       <c r="AF119" s="13"/>
     </row>
-    <row r="120" spans="1:32" s="16" customFormat="1">
+    <row r="120" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="30">
         <v>2</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C120" s="15">
         <v>1</v>
@@ -3290,12 +3295,12 @@
       <c r="AE120" s="13"/>
       <c r="AF120" s="13"/>
     </row>
-    <row r="121" spans="1:32" s="16" customFormat="1">
+    <row r="121" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="30">
         <v>3</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C121" s="15">
         <v>1</v>
@@ -3304,12 +3309,12 @@
       <c r="AE121" s="13"/>
       <c r="AF121" s="13"/>
     </row>
-    <row r="122" spans="1:32" s="16" customFormat="1">
+    <row r="122" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="30">
         <v>4</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C122" s="15">
         <v>0.9</v>
@@ -3318,7 +3323,7 @@
       <c r="AE122" s="13"/>
       <c r="AF122" s="13"/>
     </row>
-    <row r="123" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="123" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="30"/>
       <c r="B123" s="4"/>
       <c r="C123" s="15"/>
@@ -3326,17 +3331,17 @@
       <c r="AE123" s="13"/>
       <c r="AF123" s="13"/>
     </row>
-    <row r="124" spans="1:32" s="16" customFormat="1" ht="15">
+    <row r="124" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="30"/>
       <c r="B124" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C124" s="15"/>
       <c r="AD124" s="13"/>
       <c r="AE124" s="13"/>
       <c r="AF124" s="13"/>
     </row>
-    <row r="125" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="125" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="30"/>
       <c r="B125" s="2"/>
       <c r="C125" s="15"/>
@@ -3344,17 +3349,17 @@
       <c r="AE125" s="13"/>
       <c r="AF125" s="13"/>
     </row>
-    <row r="126" spans="1:32" s="16" customFormat="1" ht="15">
+    <row r="126" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="30"/>
       <c r="B126" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C126" s="15"/>
       <c r="AD126" s="13"/>
       <c r="AE126" s="13"/>
       <c r="AF126" s="13"/>
     </row>
-    <row r="127" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="127" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="30"/>
       <c r="B127" s="2"/>
       <c r="C127" s="15"/>
@@ -3362,17 +3367,17 @@
       <c r="AE127" s="13"/>
       <c r="AF127" s="13"/>
     </row>
-    <row r="128" spans="1:32" s="16" customFormat="1" ht="15">
+    <row r="128" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="30"/>
       <c r="B128" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C128" s="15"/>
       <c r="AD128" s="13"/>
       <c r="AE128" s="13"/>
       <c r="AF128" s="13"/>
     </row>
-    <row r="129" spans="1:32" s="16" customFormat="1">
+    <row r="129" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="30">
         <v>1</v>
       </c>
@@ -3386,7 +3391,7 @@
       <c r="AE129" s="13"/>
       <c r="AF129" s="13"/>
     </row>
-    <row r="130" spans="1:32" s="16" customFormat="1">
+    <row r="130" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="30">
         <v>2</v>
       </c>
@@ -3400,7 +3405,7 @@
       <c r="AE130" s="13"/>
       <c r="AF130" s="13"/>
     </row>
-    <row r="131" spans="1:32" s="16" customFormat="1">
+    <row r="131" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="30">
         <v>3</v>
       </c>
@@ -3414,7 +3419,7 @@
       <c r="AE131" s="13"/>
       <c r="AF131" s="13"/>
     </row>
-    <row r="132" spans="1:32" s="16" customFormat="1">
+    <row r="132" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="30">
         <v>4</v>
       </c>
@@ -3428,7 +3433,7 @@
       <c r="AE132" s="13"/>
       <c r="AF132" s="13"/>
     </row>
-    <row r="133" spans="1:32" s="16" customFormat="1">
+    <row r="133" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="30">
         <v>5</v>
       </c>
@@ -3442,7 +3447,7 @@
       <c r="AE133" s="13"/>
       <c r="AF133" s="13"/>
     </row>
-    <row r="134" spans="1:32" s="16" customFormat="1">
+    <row r="134" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="30">
         <v>6</v>
       </c>
@@ -3456,7 +3461,7 @@
       <c r="AE134" s="13"/>
       <c r="AF134" s="13"/>
     </row>
-    <row r="135" spans="1:32" s="16" customFormat="1">
+    <row r="135" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="30">
         <v>7</v>
       </c>
@@ -3470,7 +3475,7 @@
       <c r="AE135" s="13"/>
       <c r="AF135" s="13"/>
     </row>
-    <row r="136" spans="1:32" s="16" customFormat="1">
+    <row r="136" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="30">
         <v>8</v>
       </c>
@@ -3484,7 +3489,7 @@
       <c r="AE136" s="13"/>
       <c r="AF136" s="13"/>
     </row>
-    <row r="137" spans="1:32" s="16" customFormat="1">
+    <row r="137" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="30">
         <v>9</v>
       </c>
@@ -3498,7 +3503,7 @@
       <c r="AE137" s="13"/>
       <c r="AF137" s="13"/>
     </row>
-    <row r="138" spans="1:32" s="16" customFormat="1">
+    <row r="138" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="30">
         <v>10</v>
       </c>
@@ -3512,7 +3517,7 @@
       <c r="AE138" s="13"/>
       <c r="AF138" s="13"/>
     </row>
-    <row r="139" spans="1:32" s="16" customFormat="1">
+    <row r="139" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="30">
         <v>11</v>
       </c>
@@ -3526,7 +3531,7 @@
       <c r="AE139" s="13"/>
       <c r="AF139" s="13"/>
     </row>
-    <row r="140" spans="1:32" s="16" customFormat="1">
+    <row r="140" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="30">
         <v>12</v>
       </c>
@@ -3540,7 +3545,7 @@
       <c r="AE140" s="13"/>
       <c r="AF140" s="13"/>
     </row>
-    <row r="141" spans="1:32" s="16" customFormat="1">
+    <row r="141" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="30">
         <v>13</v>
       </c>
@@ -3554,7 +3559,7 @@
       <c r="AE141" s="13"/>
       <c r="AF141" s="13"/>
     </row>
-    <row r="142" spans="1:32" s="16" customFormat="1">
+    <row r="142" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="30">
         <v>14</v>
       </c>
@@ -3568,7 +3573,7 @@
       <c r="AE142" s="13"/>
       <c r="AF142" s="13"/>
     </row>
-    <row r="143" spans="1:32" s="16" customFormat="1">
+    <row r="143" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="30">
         <v>15</v>
       </c>
@@ -3582,7 +3587,7 @@
       <c r="AE143" s="13"/>
       <c r="AF143" s="13"/>
     </row>
-    <row r="144" spans="1:32" s="16" customFormat="1">
+    <row r="144" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="30">
         <v>16</v>
       </c>
@@ -3596,7 +3601,7 @@
       <c r="AE144" s="13"/>
       <c r="AF144" s="13"/>
     </row>
-    <row r="145" spans="1:32" s="16" customFormat="1">
+    <row r="145" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="30">
         <v>17</v>
       </c>
@@ -3610,7 +3615,7 @@
       <c r="AE145" s="13"/>
       <c r="AF145" s="13"/>
     </row>
-    <row r="146" spans="1:32" s="16" customFormat="1">
+    <row r="146" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="30">
         <v>18</v>
       </c>
@@ -3624,7 +3629,7 @@
       <c r="AE146" s="13"/>
       <c r="AF146" s="13"/>
     </row>
-    <row r="147" spans="1:32" s="16" customFormat="1">
+    <row r="147" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="30">
         <v>19</v>
       </c>
@@ -3638,7 +3643,7 @@
       <c r="AE147" s="13"/>
       <c r="AF147" s="13"/>
     </row>
-    <row r="148" spans="1:32" s="16" customFormat="1">
+    <row r="148" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="30">
         <v>20</v>
       </c>
@@ -3652,7 +3657,7 @@
       <c r="AE148" s="13"/>
       <c r="AF148" s="13"/>
     </row>
-    <row r="149" spans="1:32" s="16" customFormat="1">
+    <row r="149" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="30">
         <v>21</v>
       </c>
@@ -3666,7 +3671,7 @@
       <c r="AE149" s="13"/>
       <c r="AF149" s="13"/>
     </row>
-    <row r="150" spans="1:32" s="16" customFormat="1">
+    <row r="150" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="30">
         <v>22</v>
       </c>
@@ -3680,7 +3685,7 @@
       <c r="AE150" s="13"/>
       <c r="AF150" s="13"/>
     </row>
-    <row r="151" spans="1:32" s="16" customFormat="1">
+    <row r="151" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="30">
         <v>23</v>
       </c>
@@ -3694,7 +3699,7 @@
       <c r="AE151" s="13"/>
       <c r="AF151" s="13"/>
     </row>
-    <row r="152" spans="1:32" s="16" customFormat="1">
+    <row r="152" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="30">
         <v>24</v>
       </c>
@@ -3708,7 +3713,7 @@
       <c r="AE152" s="13"/>
       <c r="AF152" s="13"/>
     </row>
-    <row r="153" spans="1:32" s="16" customFormat="1">
+    <row r="153" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="30">
         <v>25</v>
       </c>
@@ -3722,7 +3727,7 @@
       <c r="AE153" s="13"/>
       <c r="AF153" s="13"/>
     </row>
-    <row r="154" spans="1:32" s="16" customFormat="1">
+    <row r="154" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="30">
         <v>26</v>
       </c>
@@ -3736,7 +3741,7 @@
       <c r="AE154" s="13"/>
       <c r="AF154" s="13"/>
     </row>
-    <row r="155" spans="1:32" s="16" customFormat="1">
+    <row r="155" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="30">
         <v>27</v>
       </c>
@@ -3750,7 +3755,7 @@
       <c r="AE155" s="13"/>
       <c r="AF155" s="13"/>
     </row>
-    <row r="156" spans="1:32" s="16" customFormat="1">
+    <row r="156" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="30">
         <v>28</v>
       </c>
@@ -3764,7 +3769,7 @@
       <c r="AE156" s="13"/>
       <c r="AF156" s="13"/>
     </row>
-    <row r="157" spans="1:32" s="16" customFormat="1">
+    <row r="157" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="30">
         <v>29</v>
       </c>
@@ -3778,7 +3783,7 @@
       <c r="AE157" s="13"/>
       <c r="AF157" s="13"/>
     </row>
-    <row r="158" spans="1:32" s="16" customFormat="1">
+    <row r="158" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="30">
         <v>30</v>
       </c>
@@ -3792,12 +3797,12 @@
       <c r="AE158" s="13"/>
       <c r="AF158" s="13"/>
     </row>
-    <row r="159" spans="1:32" s="16" customFormat="1">
+    <row r="159" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="30">
         <v>31</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C159" s="15">
         <v>3</v>
@@ -3806,7 +3811,7 @@
       <c r="AE159" s="13"/>
       <c r="AF159" s="13"/>
     </row>
-    <row r="160" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="160" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="30"/>
       <c r="B160" s="7"/>
       <c r="C160" s="15"/>
@@ -3814,22 +3819,22 @@
       <c r="AE160" s="13"/>
       <c r="AF160" s="13"/>
     </row>
-    <row r="161" spans="1:32" s="16" customFormat="1" ht="30">
+    <row r="161" spans="1:32" s="16" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A161" s="30"/>
       <c r="B161" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C161" s="15"/>
       <c r="AD161" s="13"/>
       <c r="AE161" s="13"/>
       <c r="AF161" s="13"/>
     </row>
-    <row r="162" spans="1:32" s="16" customFormat="1">
+    <row r="162" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="30">
         <v>1</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C162" s="15">
         <v>1</v>
@@ -3838,12 +3843,12 @@
       <c r="AE162" s="13"/>
       <c r="AF162" s="13"/>
     </row>
-    <row r="163" spans="1:32" s="16" customFormat="1">
+    <row r="163" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="30">
         <v>2</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C163" s="15">
         <v>0.9</v>
@@ -3852,7 +3857,7 @@
       <c r="AE163" s="13"/>
       <c r="AF163" s="13"/>
     </row>
-    <row r="164" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="164" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="30"/>
       <c r="B164" s="2"/>
       <c r="C164" s="15"/>
@@ -3860,17 +3865,17 @@
       <c r="AE164" s="13"/>
       <c r="AF164" s="13"/>
     </row>
-    <row r="165" spans="1:32" s="16" customFormat="1" ht="15">
+    <row r="165" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="30"/>
       <c r="B165" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C165" s="15"/>
       <c r="AD165" s="13"/>
       <c r="AE165" s="13"/>
       <c r="AF165" s="13"/>
     </row>
-    <row r="166" spans="1:32" s="16" customFormat="1">
+    <row r="166" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="30">
         <v>1</v>
       </c>
@@ -3884,7 +3889,7 @@
       <c r="AE166" s="13"/>
       <c r="AF166" s="13"/>
     </row>
-    <row r="167" spans="1:32" s="16" customFormat="1">
+    <row r="167" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="30">
         <v>2</v>
       </c>
@@ -3898,7 +3903,7 @@
       <c r="AE167" s="13"/>
       <c r="AF167" s="13"/>
     </row>
-    <row r="168" spans="1:32" s="16" customFormat="1">
+    <row r="168" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="30">
         <v>3</v>
       </c>
@@ -3912,12 +3917,12 @@
       <c r="AE168" s="13"/>
       <c r="AF168" s="13"/>
     </row>
-    <row r="169" spans="1:32" s="16" customFormat="1">
+    <row r="169" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="30">
         <v>4</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C169" s="15">
         <v>1.2</v>
@@ -3926,7 +3931,7 @@
       <c r="AE169" s="13"/>
       <c r="AF169" s="13"/>
     </row>
-    <row r="170" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="170" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="30"/>
       <c r="B170" s="5"/>
       <c r="C170" s="15"/>
@@ -3934,22 +3939,22 @@
       <c r="AE170" s="13"/>
       <c r="AF170" s="13"/>
     </row>
-    <row r="171" spans="1:32" s="16" customFormat="1" ht="15">
+    <row r="171" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="30"/>
       <c r="B171" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C171" s="15"/>
       <c r="AD171" s="13"/>
       <c r="AE171" s="13"/>
       <c r="AF171" s="13"/>
     </row>
-    <row r="172" spans="1:32" s="16" customFormat="1">
+    <row r="172" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="30">
         <v>1</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C172" s="18">
         <v>1</v>
@@ -3958,12 +3963,12 @@
       <c r="AE172" s="13"/>
       <c r="AF172" s="13"/>
     </row>
-    <row r="173" spans="1:32" s="16" customFormat="1">
+    <row r="173" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="30">
         <v>2</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C173" s="18">
         <v>1</v>
@@ -3972,12 +3977,12 @@
       <c r="AE173" s="13"/>
       <c r="AF173" s="13"/>
     </row>
-    <row r="174" spans="1:32" s="16" customFormat="1">
+    <row r="174" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="30">
         <v>3</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C174" s="18">
         <v>1</v>
@@ -3986,12 +3991,12 @@
       <c r="AE174" s="13"/>
       <c r="AF174" s="13"/>
     </row>
-    <row r="175" spans="1:32" s="16" customFormat="1" ht="28">
+    <row r="175" spans="1:32" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A175" s="30">
         <v>4</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C175" s="18">
         <v>1</v>
@@ -4000,12 +4005,12 @@
       <c r="AE175" s="13"/>
       <c r="AF175" s="13"/>
     </row>
-    <row r="176" spans="1:32" s="16" customFormat="1">
+    <row r="176" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="30">
         <v>5</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C176" s="18">
         <v>1</v>
@@ -4014,12 +4019,12 @@
       <c r="AE176" s="13"/>
       <c r="AF176" s="13"/>
     </row>
-    <row r="177" spans="1:32" s="16" customFormat="1">
+    <row r="177" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="30">
         <v>6</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C177" s="18">
         <v>1</v>
@@ -4028,12 +4033,12 @@
       <c r="AE177" s="13"/>
       <c r="AF177" s="13"/>
     </row>
-    <row r="178" spans="1:32" s="16" customFormat="1" ht="28">
+    <row r="178" spans="1:32" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A178" s="30">
         <v>7</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C178" s="18">
         <v>1</v>
@@ -4042,12 +4047,12 @@
       <c r="AE178" s="13"/>
       <c r="AF178" s="13"/>
     </row>
-    <row r="179" spans="1:32" s="16" customFormat="1">
+    <row r="179" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="30">
         <v>8</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C179" s="18">
         <v>1</v>
@@ -4056,12 +4061,12 @@
       <c r="AE179" s="13"/>
       <c r="AF179" s="13"/>
     </row>
-    <row r="180" spans="1:32" s="16" customFormat="1">
+    <row r="180" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="30">
         <v>9</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C180" s="18">
         <v>1</v>
@@ -4070,7 +4075,7 @@
       <c r="AE180" s="13"/>
       <c r="AF180" s="13"/>
     </row>
-    <row r="181" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="181" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="30"/>
       <c r="B181" s="10"/>
       <c r="C181" s="15"/>
@@ -4078,17 +4083,17 @@
       <c r="AE181" s="13"/>
       <c r="AF181" s="13"/>
     </row>
-    <row r="182" spans="1:32" s="16" customFormat="1" ht="15">
+    <row r="182" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="30"/>
       <c r="B182" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C182" s="15"/>
       <c r="AD182" s="13"/>
       <c r="AE182" s="13"/>
       <c r="AF182" s="13"/>
     </row>
-    <row r="183" spans="1:32" s="16" customFormat="1">
+    <row r="183" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="30">
         <v>1</v>
       </c>
@@ -4102,7 +4107,7 @@
       <c r="AE183" s="13"/>
       <c r="AF183" s="13"/>
     </row>
-    <row r="184" spans="1:32" s="16" customFormat="1">
+    <row r="184" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="30">
         <v>2</v>
       </c>
@@ -4116,7 +4121,7 @@
       <c r="AE184" s="13"/>
       <c r="AF184" s="13"/>
     </row>
-    <row r="185" spans="1:32" s="16" customFormat="1">
+    <row r="185" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="30">
         <v>3</v>
       </c>
@@ -4130,7 +4135,7 @@
       <c r="AE185" s="13"/>
       <c r="AF185" s="13"/>
     </row>
-    <row r="186" spans="1:32" s="16" customFormat="1">
+    <row r="186" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="30">
         <v>4</v>
       </c>
@@ -4144,7 +4149,7 @@
       <c r="AE186" s="13"/>
       <c r="AF186" s="13"/>
     </row>
-    <row r="187" spans="1:32" s="16" customFormat="1">
+    <row r="187" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="30">
         <v>5</v>
       </c>
@@ -4158,7 +4163,7 @@
       <c r="AE187" s="13"/>
       <c r="AF187" s="13"/>
     </row>
-    <row r="188" spans="1:32" s="16" customFormat="1">
+    <row r="188" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="30">
         <v>6</v>
       </c>
@@ -4172,7 +4177,7 @@
       <c r="AE188" s="13"/>
       <c r="AF188" s="13"/>
     </row>
-    <row r="189" spans="1:32" s="16" customFormat="1">
+    <row r="189" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="30">
         <v>7</v>
       </c>
@@ -4186,7 +4191,7 @@
       <c r="AE189" s="13"/>
       <c r="AF189" s="13"/>
     </row>
-    <row r="190" spans="1:32" s="16" customFormat="1">
+    <row r="190" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="30">
         <v>8</v>
       </c>
@@ -4200,7 +4205,7 @@
       <c r="AE190" s="13"/>
       <c r="AF190" s="13"/>
     </row>
-    <row r="191" spans="1:32" s="16" customFormat="1">
+    <row r="191" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="30">
         <v>9</v>
       </c>
@@ -4214,7 +4219,7 @@
       <c r="AE191" s="13"/>
       <c r="AF191" s="13"/>
     </row>
-    <row r="192" spans="1:32" s="16" customFormat="1">
+    <row r="192" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="30">
         <v>10</v>
       </c>
@@ -4228,7 +4233,7 @@
       <c r="AE192" s="13"/>
       <c r="AF192" s="13"/>
     </row>
-    <row r="193" spans="1:32" s="16" customFormat="1">
+    <row r="193" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="30">
         <v>11</v>
       </c>
@@ -4242,7 +4247,7 @@
       <c r="AE193" s="13"/>
       <c r="AF193" s="13"/>
     </row>
-    <row r="194" spans="1:32" s="16" customFormat="1">
+    <row r="194" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="30">
         <v>12</v>
       </c>
@@ -4256,7 +4261,7 @@
       <c r="AE194" s="13"/>
       <c r="AF194" s="13"/>
     </row>
-    <row r="195" spans="1:32" s="16" customFormat="1">
+    <row r="195" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="30">
         <v>13</v>
       </c>
@@ -4270,7 +4275,7 @@
       <c r="AE195" s="13"/>
       <c r="AF195" s="13"/>
     </row>
-    <row r="196" spans="1:32" s="16" customFormat="1">
+    <row r="196" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="30">
         <v>14</v>
       </c>
@@ -4284,7 +4289,7 @@
       <c r="AE196" s="13"/>
       <c r="AF196" s="13"/>
     </row>
-    <row r="197" spans="1:32" s="16" customFormat="1">
+    <row r="197" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="30">
         <v>15</v>
       </c>
@@ -4298,7 +4303,7 @@
       <c r="AE197" s="13"/>
       <c r="AF197" s="13"/>
     </row>
-    <row r="198" spans="1:32" s="16" customFormat="1">
+    <row r="198" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="30">
         <v>16</v>
       </c>
@@ -4312,7 +4317,7 @@
       <c r="AE198" s="13"/>
       <c r="AF198" s="13"/>
     </row>
-    <row r="199" spans="1:32" s="16" customFormat="1">
+    <row r="199" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="30">
         <v>17</v>
       </c>
@@ -4326,7 +4331,7 @@
       <c r="AE199" s="13"/>
       <c r="AF199" s="13"/>
     </row>
-    <row r="200" spans="1:32" s="16" customFormat="1">
+    <row r="200" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="30">
         <v>18</v>
       </c>
@@ -4340,12 +4345,12 @@
       <c r="AE200" s="13"/>
       <c r="AF200" s="13"/>
     </row>
-    <row r="201" spans="1:32" s="16" customFormat="1">
+    <row r="201" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="30">
         <v>19</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C201" s="15">
         <v>0.8</v>
@@ -4354,7 +4359,7 @@
       <c r="AE201" s="13"/>
       <c r="AF201" s="13"/>
     </row>
-    <row r="202" spans="1:32" s="16" customFormat="1">
+    <row r="202" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="30"/>
       <c r="B202" s="5"/>
       <c r="C202" s="15"/>
@@ -4362,17 +4367,17 @@
       <c r="AE202" s="13"/>
       <c r="AF202" s="13"/>
     </row>
-    <row r="203" spans="1:32" s="34" customFormat="1" ht="15">
+    <row r="203" spans="1:32" s="34" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="32"/>
       <c r="B203" s="33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C203" s="28"/>
       <c r="AD203" s="35"/>
       <c r="AE203" s="35"/>
       <c r="AF203" s="35"/>
     </row>
-    <row r="204" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="204" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="30"/>
       <c r="B204" s="10"/>
       <c r="C204" s="15"/>
@@ -4380,22 +4385,22 @@
       <c r="AE204" s="13"/>
       <c r="AF204" s="13"/>
     </row>
-    <row r="205" spans="1:32" s="16" customFormat="1" ht="15">
+    <row r="205" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="30"/>
       <c r="B205" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C205" s="15"/>
       <c r="AD205" s="13"/>
       <c r="AE205" s="13"/>
       <c r="AF205" s="13"/>
     </row>
-    <row r="206" spans="1:32" s="16" customFormat="1">
+    <row r="206" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="30">
         <v>1</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C206" s="15">
         <v>0.8</v>
@@ -4404,12 +4409,12 @@
       <c r="AE206" s="13"/>
       <c r="AF206" s="13"/>
     </row>
-    <row r="207" spans="1:32" s="16" customFormat="1" ht="28">
+    <row r="207" spans="1:32" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A207" s="30">
         <v>2</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C207" s="15">
         <v>1</v>
@@ -4418,12 +4423,12 @@
       <c r="AE207" s="13"/>
       <c r="AF207" s="13"/>
     </row>
-    <row r="208" spans="1:32" s="16" customFormat="1" ht="28">
+    <row r="208" spans="1:32" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A208" s="30">
         <v>3</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C208" s="15">
         <v>1.2</v>
@@ -4432,12 +4437,12 @@
       <c r="AE208" s="13"/>
       <c r="AF208" s="13"/>
     </row>
-    <row r="209" spans="1:32" s="16" customFormat="1" ht="28">
+    <row r="209" spans="1:32" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A209" s="30">
         <v>4</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C209" s="15">
         <v>1.5</v>
@@ -4446,12 +4451,12 @@
       <c r="AE209" s="13"/>
       <c r="AF209" s="13"/>
     </row>
-    <row r="210" spans="1:32" s="16" customFormat="1" ht="28">
+    <row r="210" spans="1:32" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A210" s="30">
         <v>5</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C210" s="15">
         <v>2</v>
@@ -4460,12 +4465,12 @@
       <c r="AE210" s="13"/>
       <c r="AF210" s="13"/>
     </row>
-    <row r="211" spans="1:32" s="16" customFormat="1" ht="28">
+    <row r="211" spans="1:32" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A211" s="30">
         <v>6</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C211" s="15">
         <v>2.2000000000000002</v>
@@ -4474,12 +4479,12 @@
       <c r="AE211" s="13"/>
       <c r="AF211" s="13"/>
     </row>
-    <row r="212" spans="1:32" s="16" customFormat="1" ht="28">
+    <row r="212" spans="1:32" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A212" s="30">
         <v>7</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C212" s="15">
         <v>2.5</v>
@@ -4488,12 +4493,12 @@
       <c r="AE212" s="13"/>
       <c r="AF212" s="13"/>
     </row>
-    <row r="213" spans="1:32" s="16" customFormat="1">
+    <row r="213" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="30">
         <v>8</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C213" s="15">
         <v>3</v>
@@ -4502,7 +4507,7 @@
       <c r="AE213" s="13"/>
       <c r="AF213" s="13"/>
     </row>
-    <row r="214" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="214" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="30"/>
       <c r="B214" s="4"/>
       <c r="C214" s="15"/>
@@ -4510,7 +4515,7 @@
       <c r="AE214" s="13"/>
       <c r="AF214" s="13"/>
     </row>
-    <row r="215" spans="1:32" s="16" customFormat="1" ht="14.25" customHeight="1">
+    <row r="215" spans="1:32" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="30"/>
       <c r="B215" s="9" t="s">
         <v>1</v>
@@ -4520,22 +4525,22 @@
       <c r="AE215" s="13"/>
       <c r="AF215" s="13"/>
     </row>
-    <row r="216" spans="1:32" s="16" customFormat="1">
+    <row r="216" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="30">
         <v>1</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C216" s="15"/>
       <c r="AD216" s="13"/>
       <c r="AE216" s="13"/>
       <c r="AF216" s="13"/>
     </row>
-    <row r="217" spans="1:32" s="16" customFormat="1">
+    <row r="217" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="30"/>
       <c r="B217" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C217" s="18">
         <v>0.99</v>
@@ -4544,22 +4549,22 @@
       <c r="AE217" s="13"/>
       <c r="AF217" s="13"/>
     </row>
-    <row r="218" spans="1:32" s="16" customFormat="1">
+    <row r="218" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="30">
         <v>2</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C218" s="18"/>
       <c r="AD218" s="13"/>
       <c r="AE218" s="13"/>
       <c r="AF218" s="13"/>
     </row>
-    <row r="219" spans="1:32" s="16" customFormat="1">
+    <row r="219" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="30"/>
       <c r="B219" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C219" s="18">
         <v>0.99</v>
@@ -4568,22 +4573,22 @@
       <c r="AE219" s="13"/>
       <c r="AF219" s="13"/>
     </row>
-    <row r="220" spans="1:32" s="16" customFormat="1">
+    <row r="220" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="30">
         <v>3</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C220" s="18"/>
       <c r="AD220" s="13"/>
       <c r="AE220" s="13"/>
       <c r="AF220" s="13"/>
     </row>
-    <row r="221" spans="1:32" s="16" customFormat="1">
+    <row r="221" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="30"/>
       <c r="B221" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C221" s="18">
         <v>0.99</v>
@@ -4592,22 +4597,22 @@
       <c r="AE221" s="13"/>
       <c r="AF221" s="13"/>
     </row>
-    <row r="222" spans="1:32" s="16" customFormat="1">
+    <row r="222" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="30">
         <v>4</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C222" s="18"/>
       <c r="AD222" s="13"/>
       <c r="AE222" s="13"/>
       <c r="AF222" s="13"/>
     </row>
-    <row r="223" spans="1:32" s="16" customFormat="1">
+    <row r="223" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="30"/>
       <c r="B223" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C223" s="18">
         <v>0.98</v>
@@ -4616,22 +4621,22 @@
       <c r="AE223" s="13"/>
       <c r="AF223" s="13"/>
     </row>
-    <row r="224" spans="1:32" s="16" customFormat="1">
+    <row r="224" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="30">
         <v>5</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C224" s="18"/>
       <c r="AD224" s="13"/>
       <c r="AE224" s="13"/>
       <c r="AF224" s="13"/>
     </row>
-    <row r="225" spans="1:32" s="16" customFormat="1">
+    <row r="225" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="30"/>
       <c r="B225" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C225" s="18">
         <v>0.98</v>
@@ -4640,22 +4645,22 @@
       <c r="AE225" s="13"/>
       <c r="AF225" s="13"/>
     </row>
-    <row r="226" spans="1:32" s="16" customFormat="1">
+    <row r="226" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="30">
         <v>6</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C226" s="18"/>
       <c r="AD226" s="13"/>
       <c r="AE226" s="13"/>
       <c r="AF226" s="13"/>
     </row>
-    <row r="227" spans="1:32" s="16" customFormat="1">
+    <row r="227" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="30"/>
       <c r="B227" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C227" s="18">
         <v>0.99</v>
@@ -4664,7 +4669,7 @@
       <c r="AE227" s="13"/>
       <c r="AF227" s="13"/>
     </row>
-    <row r="228" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="228" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="30"/>
       <c r="B228" s="12"/>
       <c r="C228" s="18"/>
@@ -4672,7 +4677,7 @@
       <c r="AE228" s="13"/>
       <c r="AF228" s="13"/>
     </row>
-    <row r="230" spans="1:32" s="16" customFormat="1" ht="18">
+    <row r="230" spans="1:32" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A230" s="30"/>
       <c r="B230" s="14"/>
       <c r="D230" s="20"/>
@@ -4690,7 +4695,7 @@
       <c r="AE230" s="13"/>
       <c r="AF230" s="13"/>
     </row>
-    <row r="231" spans="1:32" s="16" customFormat="1">
+    <row r="231" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="30"/>
       <c r="B231"/>
       <c r="D231" s="20"/>
@@ -4701,7 +4706,7 @@
       <c r="AE231" s="13"/>
       <c r="AF231" s="13"/>
     </row>
-    <row r="232" spans="1:32" s="16" customFormat="1" ht="18">
+    <row r="232" spans="1:32" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A232" s="30"/>
       <c r="B232" s="14"/>
       <c r="D232" s="20"/>
@@ -4712,15 +4717,15 @@
       <c r="AE232" s="13"/>
       <c r="AF232" s="13"/>
     </row>
-    <row r="235" spans="1:32" ht="20">
+    <row r="235" spans="1:32" ht="21" x14ac:dyDescent="0.25">
       <c r="B235" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="236" spans="1:32" s="16" customFormat="1" ht="18">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="236" spans="1:32" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A236" s="30"/>
       <c r="B236" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C236" s="17">
         <v>80</v>
@@ -4729,10 +4734,10 @@
       <c r="AE236" s="13"/>
       <c r="AF236" s="13"/>
     </row>
-    <row r="237" spans="1:32" s="16" customFormat="1" ht="18">
+    <row r="237" spans="1:32" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A237" s="30"/>
       <c r="B237" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C237" s="17">
         <v>2</v>
@@ -4756,11 +4761,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4768,11 +4768,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF344"/>
   <sheetViews>
-    <sheetView topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="B343" sqref="B343"/>
+    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="D311" sqref="D311"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="30"/>
     <col min="2" max="2" width="53.6640625" customWidth="1"/>
@@ -4789,32 +4789,32 @@
     <col min="30" max="32" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C1" s="15"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C2" s="15"/>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1">
+    <row r="3" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="15"/>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1">
+    <row r="5" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="15"/>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C6" s="15"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="30">
         <v>1</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="30">
         <v>2</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
         <v>3</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <v>4</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>5</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="30">
         <v>6</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="30">
         <v>7</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="30">
         <v>8</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="30">
         <v>9</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="30">
         <v>10</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="30">
         <v>11</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="30">
         <v>12</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="30">
         <v>13</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="30">
         <v>14</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="30">
         <v>15</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="30">
         <v>16</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="30">
         <v>17</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="30">
         <v>18</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="30">
         <v>19</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="30">
         <v>20</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="30">
         <v>21</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="30">
         <v>22</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="30">
         <v>23</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="30">
         <v>24</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="30">
         <v>25</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="30">
         <v>26</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="30">
         <v>27</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="30">
         <v>28</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="30">
         <v>29</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="30">
         <v>30</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="30">
         <v>31</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="30">
         <v>32</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="30">
         <v>33</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="30">
         <v>34</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="30">
         <v>35</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="30">
         <v>36</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="30">
         <v>37</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="30">
         <v>38</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="30">
         <v>39</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="30">
         <v>40</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="30">
         <v>41</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="30">
         <v>42</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="30">
         <v>43</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="30">
         <v>44</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="30">
         <v>45</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="30">
         <v>46</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="30">
         <v>47</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="30">
         <v>48</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="30">
         <v>49</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="30">
         <v>50</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="30">
         <v>51</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="30">
         <v>52</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="30">
         <v>53</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="30">
         <v>54</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="30">
         <v>55</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="30">
         <v>56</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="30">
         <v>57</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="30">
         <v>58</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="30">
         <v>59</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="30">
         <v>60</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="30">
         <v>61</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>1.905</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="30">
         <v>62</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="30">
         <v>63</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>1.915</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="30">
         <v>64</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="30">
         <v>65</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>1.925</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="30">
         <v>66</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="30">
         <v>67</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>1.9350000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="30">
         <v>68</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="30">
         <v>69</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>1.9450000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="30">
         <v>70</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="30">
         <v>71</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>1.9550000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="30">
         <v>72</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="30">
         <v>73</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>1.9650000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="30">
         <v>74</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="30">
         <v>75</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>1.9750000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="30">
         <v>76</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="30">
         <v>77</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>1.9850000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="30">
         <v>78</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="30">
         <v>79</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>1.9950000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="30">
         <v>80</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="30">
         <v>81</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="30">
         <v>82</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="30">
         <v>83</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="30">
         <v>84</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="30">
         <v>85</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="30">
         <v>86</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="30">
         <v>87</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="30">
         <v>88</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="30">
         <v>89</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="30">
         <v>90</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="97" spans="1:32">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A97" s="30">
         <v>91</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:32">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A98" s="30">
         <v>92</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="99" spans="1:32">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A99" s="30">
         <v>93</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="100" spans="1:32">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A100" s="30">
         <v>94</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="101" spans="1:32">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A101" s="30">
         <v>95</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="102" spans="1:32">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A102" s="30">
         <v>96</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="103" spans="1:32">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A103" s="30">
         <v>97</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="104" spans="1:32">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A104" s="30">
         <v>98</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="105" spans="1:32">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A105" s="30">
         <v>99</v>
       </c>
@@ -5903,18 +5903,18 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="106" spans="1:32">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A106" s="30">
         <v>100</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C106" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="107" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="30"/>
       <c r="B107" s="2"/>
       <c r="C107" s="15"/>
@@ -5922,17 +5922,17 @@
       <c r="AE107" s="13"/>
       <c r="AF107" s="13"/>
     </row>
-    <row r="108" spans="1:32" s="16" customFormat="1" ht="15">
+    <row r="108" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="30"/>
       <c r="B108" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C108" s="15"/>
       <c r="AD108" s="13"/>
       <c r="AE108" s="13"/>
       <c r="AF108" s="13"/>
     </row>
-    <row r="109" spans="1:32" s="16" customFormat="1">
+    <row r="109" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="30">
         <v>1</v>
       </c>
@@ -5946,7 +5946,7 @@
       <c r="AE109" s="13"/>
       <c r="AF109" s="13"/>
     </row>
-    <row r="110" spans="1:32" s="16" customFormat="1">
+    <row r="110" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="30">
         <v>2</v>
       </c>
@@ -5960,7 +5960,7 @@
       <c r="AE110" s="13"/>
       <c r="AF110" s="13"/>
     </row>
-    <row r="111" spans="1:32" s="16" customFormat="1">
+    <row r="111" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="30">
         <v>3</v>
       </c>
@@ -5974,7 +5974,7 @@
       <c r="AE111" s="13"/>
       <c r="AF111" s="13"/>
     </row>
-    <row r="112" spans="1:32" s="16" customFormat="1">
+    <row r="112" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="30">
         <v>4</v>
       </c>
@@ -5988,7 +5988,7 @@
       <c r="AE112" s="13"/>
       <c r="AF112" s="13"/>
     </row>
-    <row r="113" spans="1:32" s="16" customFormat="1">
+    <row r="113" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="30">
         <v>5</v>
       </c>
@@ -6002,7 +6002,7 @@
       <c r="AE113" s="13"/>
       <c r="AF113" s="13"/>
     </row>
-    <row r="114" spans="1:32" s="16" customFormat="1">
+    <row r="114" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="30">
         <v>6</v>
       </c>
@@ -6016,7 +6016,7 @@
       <c r="AE114" s="13"/>
       <c r="AF114" s="13"/>
     </row>
-    <row r="115" spans="1:32" s="16" customFormat="1">
+    <row r="115" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="30">
         <v>7</v>
       </c>
@@ -6030,7 +6030,7 @@
       <c r="AE115" s="13"/>
       <c r="AF115" s="13"/>
     </row>
-    <row r="116" spans="1:32" s="16" customFormat="1">
+    <row r="116" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="30">
         <v>8</v>
       </c>
@@ -6044,7 +6044,7 @@
       <c r="AE116" s="13"/>
       <c r="AF116" s="13"/>
     </row>
-    <row r="117" spans="1:32" s="16" customFormat="1">
+    <row r="117" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="30">
         <v>9</v>
       </c>
@@ -6058,7 +6058,7 @@
       <c r="AE117" s="13"/>
       <c r="AF117" s="13"/>
     </row>
-    <row r="118" spans="1:32" s="16" customFormat="1">
+    <row r="118" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="30">
         <v>10</v>
       </c>
@@ -6072,7 +6072,7 @@
       <c r="AE118" s="13"/>
       <c r="AF118" s="13"/>
     </row>
-    <row r="119" spans="1:32" s="16" customFormat="1">
+    <row r="119" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="30">
         <v>11</v>
       </c>
@@ -6086,7 +6086,7 @@
       <c r="AE119" s="13"/>
       <c r="AF119" s="13"/>
     </row>
-    <row r="120" spans="1:32" s="16" customFormat="1">
+    <row r="120" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="30">
         <v>12</v>
       </c>
@@ -6100,7 +6100,7 @@
       <c r="AE120" s="13"/>
       <c r="AF120" s="13"/>
     </row>
-    <row r="121" spans="1:32" s="16" customFormat="1">
+    <row r="121" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="30">
         <v>13</v>
       </c>
@@ -6114,7 +6114,7 @@
       <c r="AE121" s="13"/>
       <c r="AF121" s="13"/>
     </row>
-    <row r="122" spans="1:32" s="16" customFormat="1">
+    <row r="122" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="30">
         <v>14</v>
       </c>
@@ -6128,7 +6128,7 @@
       <c r="AE122" s="13"/>
       <c r="AF122" s="13"/>
     </row>
-    <row r="123" spans="1:32" s="16" customFormat="1">
+    <row r="123" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="30">
         <v>15</v>
       </c>
@@ -6142,7 +6142,7 @@
       <c r="AE123" s="13"/>
       <c r="AF123" s="13"/>
     </row>
-    <row r="124" spans="1:32" s="16" customFormat="1">
+    <row r="124" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="30">
         <v>16</v>
       </c>
@@ -6156,7 +6156,7 @@
       <c r="AE124" s="13"/>
       <c r="AF124" s="13"/>
     </row>
-    <row r="125" spans="1:32" s="16" customFormat="1">
+    <row r="125" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="30">
         <v>17</v>
       </c>
@@ -6170,7 +6170,7 @@
       <c r="AE125" s="13"/>
       <c r="AF125" s="13"/>
     </row>
-    <row r="126" spans="1:32" s="16" customFormat="1">
+    <row r="126" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="30">
         <v>18</v>
       </c>
@@ -6184,7 +6184,7 @@
       <c r="AE126" s="13"/>
       <c r="AF126" s="13"/>
     </row>
-    <row r="127" spans="1:32" s="16" customFormat="1">
+    <row r="127" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="30">
         <v>19</v>
       </c>
@@ -6198,7 +6198,7 @@
       <c r="AE127" s="13"/>
       <c r="AF127" s="13"/>
     </row>
-    <row r="128" spans="1:32" s="16" customFormat="1">
+    <row r="128" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="30">
         <v>20</v>
       </c>
@@ -6212,7 +6212,7 @@
       <c r="AE128" s="13"/>
       <c r="AF128" s="13"/>
     </row>
-    <row r="129" spans="1:32" s="16" customFormat="1">
+    <row r="129" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="30">
         <v>21</v>
       </c>
@@ -6226,7 +6226,7 @@
       <c r="AE129" s="13"/>
       <c r="AF129" s="13"/>
     </row>
-    <row r="130" spans="1:32" s="16" customFormat="1">
+    <row r="130" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="30">
         <v>22</v>
       </c>
@@ -6240,7 +6240,7 @@
       <c r="AE130" s="13"/>
       <c r="AF130" s="13"/>
     </row>
-    <row r="131" spans="1:32" s="16" customFormat="1">
+    <row r="131" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="30">
         <v>23</v>
       </c>
@@ -6254,7 +6254,7 @@
       <c r="AE131" s="13"/>
       <c r="AF131" s="13"/>
     </row>
-    <row r="132" spans="1:32" s="16" customFormat="1">
+    <row r="132" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="30">
         <v>24</v>
       </c>
@@ -6268,7 +6268,7 @@
       <c r="AE132" s="13"/>
       <c r="AF132" s="13"/>
     </row>
-    <row r="133" spans="1:32" s="16" customFormat="1">
+    <row r="133" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="30">
         <v>25</v>
       </c>
@@ -6282,7 +6282,7 @@
       <c r="AE133" s="13"/>
       <c r="AF133" s="13"/>
     </row>
-    <row r="134" spans="1:32" s="16" customFormat="1">
+    <row r="134" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="30">
         <v>26</v>
       </c>
@@ -6296,7 +6296,7 @@
       <c r="AE134" s="13"/>
       <c r="AF134" s="13"/>
     </row>
-    <row r="135" spans="1:32" s="16" customFormat="1">
+    <row r="135" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="30">
         <v>27</v>
       </c>
@@ -6310,7 +6310,7 @@
       <c r="AE135" s="13"/>
       <c r="AF135" s="13"/>
     </row>
-    <row r="136" spans="1:32" s="16" customFormat="1">
+    <row r="136" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="30">
         <v>28</v>
       </c>
@@ -6324,7 +6324,7 @@
       <c r="AE136" s="13"/>
       <c r="AF136" s="13"/>
     </row>
-    <row r="137" spans="1:32" s="16" customFormat="1">
+    <row r="137" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="30">
         <v>29</v>
       </c>
@@ -6338,7 +6338,7 @@
       <c r="AE137" s="13"/>
       <c r="AF137" s="13"/>
     </row>
-    <row r="138" spans="1:32" s="16" customFormat="1">
+    <row r="138" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="30">
         <v>30</v>
       </c>
@@ -6352,7 +6352,7 @@
       <c r="AE138" s="13"/>
       <c r="AF138" s="13"/>
     </row>
-    <row r="139" spans="1:32" s="16" customFormat="1">
+    <row r="139" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="30">
         <v>31</v>
       </c>
@@ -6366,7 +6366,7 @@
       <c r="AE139" s="13"/>
       <c r="AF139" s="13"/>
     </row>
-    <row r="140" spans="1:32" s="16" customFormat="1">
+    <row r="140" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="30">
         <v>32</v>
       </c>
@@ -6380,7 +6380,7 @@
       <c r="AE140" s="13"/>
       <c r="AF140" s="13"/>
     </row>
-    <row r="141" spans="1:32" s="16" customFormat="1">
+    <row r="141" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="30">
         <v>33</v>
       </c>
@@ -6394,7 +6394,7 @@
       <c r="AE141" s="13"/>
       <c r="AF141" s="13"/>
     </row>
-    <row r="142" spans="1:32" s="16" customFormat="1">
+    <row r="142" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="30">
         <v>34</v>
       </c>
@@ -6408,7 +6408,7 @@
       <c r="AE142" s="13"/>
       <c r="AF142" s="13"/>
     </row>
-    <row r="143" spans="1:32" s="16" customFormat="1">
+    <row r="143" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="30">
         <v>35</v>
       </c>
@@ -6422,7 +6422,7 @@
       <c r="AE143" s="13"/>
       <c r="AF143" s="13"/>
     </row>
-    <row r="144" spans="1:32" s="16" customFormat="1">
+    <row r="144" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="30">
         <v>36</v>
       </c>
@@ -6436,7 +6436,7 @@
       <c r="AE144" s="13"/>
       <c r="AF144" s="13"/>
     </row>
-    <row r="145" spans="1:32" s="16" customFormat="1">
+    <row r="145" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="30">
         <v>37</v>
       </c>
@@ -6450,7 +6450,7 @@
       <c r="AE145" s="13"/>
       <c r="AF145" s="13"/>
     </row>
-    <row r="146" spans="1:32" s="16" customFormat="1">
+    <row r="146" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="30">
         <v>38</v>
       </c>
@@ -6464,7 +6464,7 @@
       <c r="AE146" s="13"/>
       <c r="AF146" s="13"/>
     </row>
-    <row r="147" spans="1:32" s="16" customFormat="1">
+    <row r="147" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="30">
         <v>39</v>
       </c>
@@ -6478,7 +6478,7 @@
       <c r="AE147" s="13"/>
       <c r="AF147" s="13"/>
     </row>
-    <row r="148" spans="1:32" s="16" customFormat="1">
+    <row r="148" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="30">
         <v>40</v>
       </c>
@@ -6492,7 +6492,7 @@
       <c r="AE148" s="13"/>
       <c r="AF148" s="13"/>
     </row>
-    <row r="149" spans="1:32" s="16" customFormat="1">
+    <row r="149" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="30">
         <v>41</v>
       </c>
@@ -6506,7 +6506,7 @@
       <c r="AE149" s="13"/>
       <c r="AF149" s="13"/>
     </row>
-    <row r="150" spans="1:32" s="16" customFormat="1">
+    <row r="150" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="30">
         <v>42</v>
       </c>
@@ -6520,7 +6520,7 @@
       <c r="AE150" s="13"/>
       <c r="AF150" s="13"/>
     </row>
-    <row r="151" spans="1:32" s="16" customFormat="1">
+    <row r="151" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="30">
         <v>43</v>
       </c>
@@ -6534,7 +6534,7 @@
       <c r="AE151" s="13"/>
       <c r="AF151" s="13"/>
     </row>
-    <row r="152" spans="1:32" s="16" customFormat="1">
+    <row r="152" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="30">
         <v>44</v>
       </c>
@@ -6548,12 +6548,12 @@
       <c r="AE152" s="13"/>
       <c r="AF152" s="13"/>
     </row>
-    <row r="153" spans="1:32" s="16" customFormat="1">
+    <row r="153" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="30">
         <v>45</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C153" s="15">
         <v>2.5</v>
@@ -6562,7 +6562,7 @@
       <c r="AE153" s="13"/>
       <c r="AF153" s="13"/>
     </row>
-    <row r="154" spans="1:32" s="16" customFormat="1">
+    <row r="154" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="30">
         <v>46</v>
       </c>
@@ -6576,7 +6576,7 @@
       <c r="AE154" s="13"/>
       <c r="AF154" s="13"/>
     </row>
-    <row r="155" spans="1:32" s="16" customFormat="1">
+    <row r="155" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="30">
         <v>47</v>
       </c>
@@ -6590,7 +6590,7 @@
       <c r="AE155" s="13"/>
       <c r="AF155" s="13"/>
     </row>
-    <row r="156" spans="1:32" s="16" customFormat="1">
+    <row r="156" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="30">
         <v>48</v>
       </c>
@@ -6604,7 +6604,7 @@
       <c r="AE156" s="13"/>
       <c r="AF156" s="13"/>
     </row>
-    <row r="157" spans="1:32" s="16" customFormat="1">
+    <row r="157" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="30">
         <v>49</v>
       </c>
@@ -6618,7 +6618,7 @@
       <c r="AE157" s="13"/>
       <c r="AF157" s="13"/>
     </row>
-    <row r="158" spans="1:32" s="16" customFormat="1">
+    <row r="158" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="30">
         <v>50</v>
       </c>
@@ -6632,7 +6632,7 @@
       <c r="AE158" s="13"/>
       <c r="AF158" s="13"/>
     </row>
-    <row r="159" spans="1:32" s="16" customFormat="1">
+    <row r="159" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="30">
         <v>51</v>
       </c>
@@ -6646,7 +6646,7 @@
       <c r="AE159" s="13"/>
       <c r="AF159" s="13"/>
     </row>
-    <row r="160" spans="1:32" s="16" customFormat="1">
+    <row r="160" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="30">
         <v>52</v>
       </c>
@@ -6660,7 +6660,7 @@
       <c r="AE160" s="13"/>
       <c r="AF160" s="13"/>
     </row>
-    <row r="161" spans="1:32" s="16" customFormat="1">
+    <row r="161" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="30">
         <v>53</v>
       </c>
@@ -6674,7 +6674,7 @@
       <c r="AE161" s="13"/>
       <c r="AF161" s="13"/>
     </row>
-    <row r="162" spans="1:32" s="16" customFormat="1">
+    <row r="162" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="30">
         <v>54</v>
       </c>
@@ -6688,7 +6688,7 @@
       <c r="AE162" s="13"/>
       <c r="AF162" s="13"/>
     </row>
-    <row r="163" spans="1:32" s="16" customFormat="1">
+    <row r="163" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="30">
         <v>55</v>
       </c>
@@ -6702,12 +6702,12 @@
       <c r="AE163" s="13"/>
       <c r="AF163" s="13"/>
     </row>
-    <row r="164" spans="1:32" s="16" customFormat="1">
+    <row r="164" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="30">
         <v>56</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C164" s="15">
         <v>2.5</v>
@@ -6716,7 +6716,7 @@
       <c r="AE164" s="13"/>
       <c r="AF164" s="13"/>
     </row>
-    <row r="165" spans="1:32" s="16" customFormat="1">
+    <row r="165" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="30">
         <v>57</v>
       </c>
@@ -6730,7 +6730,7 @@
       <c r="AE165" s="13"/>
       <c r="AF165" s="13"/>
     </row>
-    <row r="166" spans="1:32" s="16" customFormat="1">
+    <row r="166" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="30">
         <v>58</v>
       </c>
@@ -6744,7 +6744,7 @@
       <c r="AE166" s="13"/>
       <c r="AF166" s="13"/>
     </row>
-    <row r="167" spans="1:32" s="16" customFormat="1">
+    <row r="167" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="30">
         <v>59</v>
       </c>
@@ -6758,7 +6758,7 @@
       <c r="AE167" s="13"/>
       <c r="AF167" s="13"/>
     </row>
-    <row r="168" spans="1:32" s="16" customFormat="1">
+    <row r="168" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="30">
         <v>60</v>
       </c>
@@ -6772,7 +6772,7 @@
       <c r="AE168" s="13"/>
       <c r="AF168" s="13"/>
     </row>
-    <row r="169" spans="1:32" s="16" customFormat="1">
+    <row r="169" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="30">
         <v>61</v>
       </c>
@@ -6786,7 +6786,7 @@
       <c r="AE169" s="13"/>
       <c r="AF169" s="13"/>
     </row>
-    <row r="170" spans="1:32" s="16" customFormat="1">
+    <row r="170" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="30">
         <v>62</v>
       </c>
@@ -6800,7 +6800,7 @@
       <c r="AE170" s="13"/>
       <c r="AF170" s="13"/>
     </row>
-    <row r="171" spans="1:32" s="16" customFormat="1">
+    <row r="171" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="30">
         <v>63</v>
       </c>
@@ -6814,7 +6814,7 @@
       <c r="AE171" s="13"/>
       <c r="AF171" s="13"/>
     </row>
-    <row r="172" spans="1:32" s="16" customFormat="1">
+    <row r="172" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="30">
         <v>64</v>
       </c>
@@ -6828,7 +6828,7 @@
       <c r="AE172" s="13"/>
       <c r="AF172" s="13"/>
     </row>
-    <row r="173" spans="1:32" s="16" customFormat="1">
+    <row r="173" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="30">
         <v>65</v>
       </c>
@@ -6842,7 +6842,7 @@
       <c r="AE173" s="13"/>
       <c r="AF173" s="13"/>
     </row>
-    <row r="174" spans="1:32" s="16" customFormat="1">
+    <row r="174" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="30">
         <v>66</v>
       </c>
@@ -6856,7 +6856,7 @@
       <c r="AE174" s="13"/>
       <c r="AF174" s="13"/>
     </row>
-    <row r="175" spans="1:32" s="16" customFormat="1">
+    <row r="175" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="30">
         <v>67</v>
       </c>
@@ -6870,7 +6870,7 @@
       <c r="AE175" s="13"/>
       <c r="AF175" s="13"/>
     </row>
-    <row r="176" spans="1:32" s="16" customFormat="1">
+    <row r="176" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="30">
         <v>68</v>
       </c>
@@ -6884,7 +6884,7 @@
       <c r="AE176" s="13"/>
       <c r="AF176" s="13"/>
     </row>
-    <row r="177" spans="1:32" s="16" customFormat="1">
+    <row r="177" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="30">
         <v>69</v>
       </c>
@@ -6898,7 +6898,7 @@
       <c r="AE177" s="13"/>
       <c r="AF177" s="13"/>
     </row>
-    <row r="178" spans="1:32" s="16" customFormat="1">
+    <row r="178" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="30">
         <v>70</v>
       </c>
@@ -6912,7 +6912,7 @@
       <c r="AE178" s="13"/>
       <c r="AF178" s="13"/>
     </row>
-    <row r="179" spans="1:32" s="16" customFormat="1">
+    <row r="179" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="30">
         <v>71</v>
       </c>
@@ -6926,7 +6926,7 @@
       <c r="AE179" s="13"/>
       <c r="AF179" s="13"/>
     </row>
-    <row r="180" spans="1:32" s="16" customFormat="1">
+    <row r="180" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="30">
         <v>72</v>
       </c>
@@ -6940,7 +6940,7 @@
       <c r="AE180" s="13"/>
       <c r="AF180" s="13"/>
     </row>
-    <row r="181" spans="1:32" s="16" customFormat="1">
+    <row r="181" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="30">
         <v>73</v>
       </c>
@@ -6954,7 +6954,7 @@
       <c r="AE181" s="13"/>
       <c r="AF181" s="13"/>
     </row>
-    <row r="182" spans="1:32" s="16" customFormat="1">
+    <row r="182" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="30">
         <v>74</v>
       </c>
@@ -6968,7 +6968,7 @@
       <c r="AE182" s="13"/>
       <c r="AF182" s="13"/>
     </row>
-    <row r="183" spans="1:32" s="16" customFormat="1">
+    <row r="183" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="30">
         <v>75</v>
       </c>
@@ -6982,7 +6982,7 @@
       <c r="AE183" s="13"/>
       <c r="AF183" s="13"/>
     </row>
-    <row r="184" spans="1:32" s="16" customFormat="1">
+    <row r="184" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="30">
         <v>76</v>
       </c>
@@ -6996,7 +6996,7 @@
       <c r="AE184" s="13"/>
       <c r="AF184" s="13"/>
     </row>
-    <row r="185" spans="1:32" s="16" customFormat="1">
+    <row r="185" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="30">
         <v>77</v>
       </c>
@@ -7010,7 +7010,7 @@
       <c r="AE185" s="13"/>
       <c r="AF185" s="13"/>
     </row>
-    <row r="186" spans="1:32" s="16" customFormat="1">
+    <row r="186" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="30">
         <v>78</v>
       </c>
@@ -7024,7 +7024,7 @@
       <c r="AE186" s="13"/>
       <c r="AF186" s="13"/>
     </row>
-    <row r="187" spans="1:32" s="16" customFormat="1">
+    <row r="187" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="30">
         <v>79</v>
       </c>
@@ -7038,7 +7038,7 @@
       <c r="AE187" s="13"/>
       <c r="AF187" s="13"/>
     </row>
-    <row r="188" spans="1:32" s="16" customFormat="1">
+    <row r="188" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="30">
         <v>80</v>
       </c>
@@ -7052,7 +7052,7 @@
       <c r="AE188" s="13"/>
       <c r="AF188" s="13"/>
     </row>
-    <row r="189" spans="1:32" s="16" customFormat="1">
+    <row r="189" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="30">
         <v>81</v>
       </c>
@@ -7066,7 +7066,7 @@
       <c r="AE189" s="13"/>
       <c r="AF189" s="13"/>
     </row>
-    <row r="190" spans="1:32" s="16" customFormat="1">
+    <row r="190" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="30">
         <v>82</v>
       </c>
@@ -7080,7 +7080,7 @@
       <c r="AE190" s="13"/>
       <c r="AF190" s="13"/>
     </row>
-    <row r="191" spans="1:32" s="16" customFormat="1">
+    <row r="191" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="30">
         <v>83</v>
       </c>
@@ -7094,7 +7094,7 @@
       <c r="AE191" s="13"/>
       <c r="AF191" s="13"/>
     </row>
-    <row r="192" spans="1:32" s="16" customFormat="1">
+    <row r="192" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="30">
         <v>84</v>
       </c>
@@ -7108,7 +7108,7 @@
       <c r="AE192" s="13"/>
       <c r="AF192" s="13"/>
     </row>
-    <row r="193" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="193" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="30"/>
       <c r="B193" s="2"/>
       <c r="C193" s="15"/>
@@ -7116,17 +7116,17 @@
       <c r="AE193" s="13"/>
       <c r="AF193" s="13"/>
     </row>
-    <row r="194" spans="1:32" s="16" customFormat="1" ht="15">
+    <row r="194" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="30"/>
       <c r="B194" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C194" s="15"/>
       <c r="AD194" s="13"/>
       <c r="AE194" s="13"/>
       <c r="AF194" s="13"/>
     </row>
-    <row r="195" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1">
+    <row r="195" spans="1:32" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="30"/>
       <c r="B195" s="23"/>
       <c r="C195" s="15"/>
@@ -7134,22 +7134,22 @@
       <c r="AE195" s="13"/>
       <c r="AF195" s="13"/>
     </row>
-    <row r="196" spans="1:32" s="16" customFormat="1" ht="15">
+    <row r="196" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="30"/>
       <c r="B196" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C196" s="15"/>
       <c r="AD196" s="13"/>
       <c r="AE196" s="13"/>
       <c r="AF196" s="13"/>
     </row>
-    <row r="197" spans="1:32" s="16" customFormat="1">
+    <row r="197" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="30">
         <v>1</v>
       </c>
       <c r="B197" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C197" s="18">
         <v>1.1000000000000001</v>
@@ -7158,12 +7158,12 @@
       <c r="AE197" s="13"/>
       <c r="AF197" s="13"/>
     </row>
-    <row r="198" spans="1:32" s="16" customFormat="1">
+    <row r="198" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="30">
         <v>2</v>
       </c>
       <c r="B198" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C198" s="18">
         <v>1.1000000000000001</v>
@@ -7172,12 +7172,12 @@
       <c r="AE198" s="13"/>
       <c r="AF198" s="13"/>
     </row>
-    <row r="199" spans="1:32" s="16" customFormat="1">
+    <row r="199" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="30">
         <v>3</v>
       </c>
       <c r="B199" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C199" s="18">
         <v>1.1000000000000001</v>
@@ -7186,12 +7186,12 @@
       <c r="AE199" s="13"/>
       <c r="AF199" s="13"/>
     </row>
-    <row r="200" spans="1:32" s="16" customFormat="1">
+    <row r="200" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="30">
         <v>4</v>
       </c>
       <c r="B200" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C200" s="18">
         <v>1.1000000000000001</v>
@@ -7200,12 +7200,12 @@
       <c r="AE200" s="13"/>
       <c r="AF200" s="13"/>
     </row>
-    <row r="201" spans="1:32" s="16" customFormat="1">
+    <row r="201" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="30">
         <v>5</v>
       </c>
       <c r="B201" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C201" s="18">
         <v>1.1000000000000001</v>
@@ -7214,12 +7214,12 @@
       <c r="AE201" s="13"/>
       <c r="AF201" s="13"/>
     </row>
-    <row r="202" spans="1:32" s="16" customFormat="1">
+    <row r="202" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="30">
         <v>6</v>
       </c>
       <c r="B202" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C202" s="18">
         <v>1.1000000000000001</v>
@@ -7228,12 +7228,12 @@
       <c r="AE202" s="13"/>
       <c r="AF202" s="13"/>
     </row>
-    <row r="203" spans="1:32" s="16" customFormat="1">
+    <row r="203" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="30">
         <v>7</v>
       </c>
       <c r="B203" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C203" s="18">
         <v>1.1000000000000001</v>
@@ -7242,12 +7242,12 @@
       <c r="AE203" s="13"/>
       <c r="AF203" s="13"/>
     </row>
-    <row r="204" spans="1:32" s="16" customFormat="1">
+    <row r="204" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="30">
         <v>8</v>
       </c>
       <c r="B204" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C204" s="18">
         <v>1.1000000000000001</v>
@@ -7256,12 +7256,12 @@
       <c r="AE204" s="13"/>
       <c r="AF204" s="13"/>
     </row>
-    <row r="205" spans="1:32" s="16" customFormat="1">
+    <row r="205" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="30">
         <v>9</v>
       </c>
       <c r="B205" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C205" s="18">
         <v>1.1000000000000001</v>
@@ -7270,12 +7270,12 @@
       <c r="AE205" s="13"/>
       <c r="AF205" s="13"/>
     </row>
-    <row r="206" spans="1:32" s="16" customFormat="1">
+    <row r="206" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="30">
         <v>10</v>
       </c>
       <c r="B206" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C206" s="18">
         <v>1.1000000000000001</v>
@@ -7284,12 +7284,12 @@
       <c r="AE206" s="13"/>
       <c r="AF206" s="13"/>
     </row>
-    <row r="207" spans="1:32" s="16" customFormat="1">
+    <row r="207" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="30">
         <v>11</v>
       </c>
       <c r="B207" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C207" s="18">
         <v>1.1000000000000001</v>
@@ -7298,12 +7298,12 @@
       <c r="AE207" s="13"/>
       <c r="AF207" s="13"/>
     </row>
-    <row r="208" spans="1:32" s="16" customFormat="1">
+    <row r="208" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="30">
         <v>12</v>
       </c>
       <c r="B208" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C208" s="18">
         <v>1.1000000000000001</v>
@@ -7312,12 +7312,12 @@
       <c r="AE208" s="13"/>
       <c r="AF208" s="13"/>
     </row>
-    <row r="209" spans="1:32" s="16" customFormat="1">
+    <row r="209" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="30">
         <v>13</v>
       </c>
       <c r="B209" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C209" s="18">
         <v>1.1000000000000001</v>
@@ -7326,12 +7326,12 @@
       <c r="AE209" s="13"/>
       <c r="AF209" s="13"/>
     </row>
-    <row r="210" spans="1:32" s="16" customFormat="1">
+    <row r="210" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="30">
         <v>14</v>
       </c>
       <c r="B210" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C210" s="18">
         <v>1.1000000000000001</v>
@@ -7340,12 +7340,12 @@
       <c r="AE210" s="13"/>
       <c r="AF210" s="13"/>
     </row>
-    <row r="211" spans="1:32" s="16" customFormat="1">
+    <row r="211" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="30">
         <v>15</v>
       </c>
       <c r="B211" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C211" s="18">
         <v>1.1000000000000001</v>
@@ -7354,12 +7354,12 @@
       <c r="AE211" s="13"/>
       <c r="AF211" s="13"/>
     </row>
-    <row r="212" spans="1:32" s="16" customFormat="1">
+    <row r="212" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="30">
         <v>16</v>
       </c>
       <c r="B212" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C212" s="18">
         <v>1.1000000000000001</v>
@@ -7368,12 +7368,12 @@
       <c r="AE212" s="13"/>
       <c r="AF212" s="13"/>
     </row>
-    <row r="213" spans="1:32" s="16" customFormat="1">
+    <row r="213" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="30">
         <v>17</v>
       </c>
       <c r="B213" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C213" s="18">
         <v>1.1000000000000001</v>
@@ -7382,12 +7382,12 @@
       <c r="AE213" s="13"/>
       <c r="AF213" s="13"/>
     </row>
-    <row r="214" spans="1:32" s="16" customFormat="1">
+    <row r="214" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="30">
         <v>18</v>
       </c>
       <c r="B214" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C214" s="18">
         <v>1.1000000000000001</v>
@@ -7396,12 +7396,12 @@
       <c r="AE214" s="13"/>
       <c r="AF214" s="13"/>
     </row>
-    <row r="215" spans="1:32" s="16" customFormat="1">
+    <row r="215" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="30">
         <v>19</v>
       </c>
       <c r="B215" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C215" s="18">
         <v>1.1000000000000001</v>
@@ -7410,12 +7410,12 @@
       <c r="AE215" s="13"/>
       <c r="AF215" s="13"/>
     </row>
-    <row r="216" spans="1:32" s="16" customFormat="1">
+    <row r="216" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="30">
         <v>20</v>
       </c>
       <c r="B216" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C216" s="18">
         <v>1.1000000000000001</v>
@@ -7424,12 +7424,12 @@
       <c r="AE216" s="13"/>
       <c r="AF216" s="13"/>
     </row>
-    <row r="217" spans="1:32" s="16" customFormat="1">
+    <row r="217" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="30">
         <v>21</v>
       </c>
       <c r="B217" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C217" s="18">
         <v>1.1000000000000001</v>
@@ -7438,12 +7438,12 @@
       <c r="AE217" s="13"/>
       <c r="AF217" s="13"/>
     </row>
-    <row r="218" spans="1:32" s="16" customFormat="1">
+    <row r="218" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="30">
         <v>22</v>
       </c>
       <c r="B218" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C218" s="18">
         <v>1.1000000000000001</v>
@@ -7452,12 +7452,12 @@
       <c r="AE218" s="13"/>
       <c r="AF218" s="13"/>
     </row>
-    <row r="219" spans="1:32" s="16" customFormat="1">
+    <row r="219" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="30">
         <v>23</v>
       </c>
       <c r="B219" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C219" s="18">
         <v>1.1000000000000001</v>
@@ -7466,12 +7466,12 @@
       <c r="AE219" s="13"/>
       <c r="AF219" s="13"/>
     </row>
-    <row r="220" spans="1:32" s="16" customFormat="1">
+    <row r="220" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="30">
         <v>24</v>
       </c>
       <c r="B220" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C220" s="18">
         <v>1.1000000000000001</v>
@@ -7480,7 +7480,7 @@
       <c r="AE220" s="13"/>
       <c r="AF220" s="13"/>
     </row>
-    <row r="221" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="221" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="30"/>
       <c r="B221" s="6"/>
       <c r="C221" s="15"/>
@@ -7488,22 +7488,22 @@
       <c r="AE221" s="13"/>
       <c r="AF221" s="13"/>
     </row>
-    <row r="222" spans="1:32" s="16" customFormat="1" ht="15">
+    <row r="222" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="30"/>
       <c r="B222" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C222" s="15"/>
       <c r="AD222" s="13"/>
       <c r="AE222" s="13"/>
       <c r="AF222" s="13"/>
     </row>
-    <row r="223" spans="1:32" s="16" customFormat="1">
+    <row r="223" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="30">
         <v>1</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C223" s="15">
         <v>1</v>
@@ -7512,12 +7512,12 @@
       <c r="AE223" s="13"/>
       <c r="AF223" s="13"/>
     </row>
-    <row r="224" spans="1:32" s="16" customFormat="1">
+    <row r="224" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="30">
         <v>2</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C224" s="15">
         <v>1</v>
@@ -7526,12 +7526,12 @@
       <c r="AE224" s="13"/>
       <c r="AF224" s="13"/>
     </row>
-    <row r="225" spans="1:32" s="16" customFormat="1">
+    <row r="225" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="30">
         <v>3</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C225" s="15">
         <v>1</v>
@@ -7540,12 +7540,12 @@
       <c r="AE225" s="13"/>
       <c r="AF225" s="13"/>
     </row>
-    <row r="226" spans="1:32" s="16" customFormat="1">
+    <row r="226" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="30">
         <v>4</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C226" s="15">
         <v>0.9</v>
@@ -7554,7 +7554,7 @@
       <c r="AE226" s="13"/>
       <c r="AF226" s="13"/>
     </row>
-    <row r="227" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="227" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="30"/>
       <c r="B227" s="4"/>
       <c r="C227" s="15"/>
@@ -7562,17 +7562,17 @@
       <c r="AE227" s="13"/>
       <c r="AF227" s="13"/>
     </row>
-    <row r="228" spans="1:32" s="16" customFormat="1" ht="15">
+    <row r="228" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="30"/>
       <c r="B228" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C228" s="15"/>
       <c r="AD228" s="13"/>
       <c r="AE228" s="13"/>
       <c r="AF228" s="13"/>
     </row>
-    <row r="229" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="229" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="30"/>
       <c r="B229" s="2"/>
       <c r="C229" s="15"/>
@@ -7580,17 +7580,17 @@
       <c r="AE229" s="13"/>
       <c r="AF229" s="13"/>
     </row>
-    <row r="230" spans="1:32" s="16" customFormat="1" ht="15">
+    <row r="230" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="30"/>
       <c r="B230" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C230" s="15"/>
       <c r="AD230" s="13"/>
       <c r="AE230" s="13"/>
       <c r="AF230" s="13"/>
     </row>
-    <row r="231" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="231" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" s="30"/>
       <c r="B231" s="2"/>
       <c r="C231" s="15"/>
@@ -7598,17 +7598,17 @@
       <c r="AE231" s="13"/>
       <c r="AF231" s="13"/>
     </row>
-    <row r="232" spans="1:32" s="16" customFormat="1" ht="15">
+    <row r="232" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="30"/>
       <c r="B232" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C232" s="15"/>
       <c r="AD232" s="13"/>
       <c r="AE232" s="13"/>
       <c r="AF232" s="13"/>
     </row>
-    <row r="233" spans="1:32" s="16" customFormat="1">
+    <row r="233" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="30">
         <v>1</v>
       </c>
@@ -7622,7 +7622,7 @@
       <c r="AE233" s="13"/>
       <c r="AF233" s="13"/>
     </row>
-    <row r="234" spans="1:32" s="16" customFormat="1">
+    <row r="234" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="30">
         <v>2</v>
       </c>
@@ -7636,7 +7636,7 @@
       <c r="AE234" s="13"/>
       <c r="AF234" s="13"/>
     </row>
-    <row r="235" spans="1:32" s="16" customFormat="1">
+    <row r="235" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="30">
         <v>3</v>
       </c>
@@ -7650,7 +7650,7 @@
       <c r="AE235" s="13"/>
       <c r="AF235" s="13"/>
     </row>
-    <row r="236" spans="1:32" s="16" customFormat="1">
+    <row r="236" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="30">
         <v>4</v>
       </c>
@@ -7664,7 +7664,7 @@
       <c r="AE236" s="13"/>
       <c r="AF236" s="13"/>
     </row>
-    <row r="237" spans="1:32" s="16" customFormat="1">
+    <row r="237" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="30">
         <v>5</v>
       </c>
@@ -7678,7 +7678,7 @@
       <c r="AE237" s="13"/>
       <c r="AF237" s="13"/>
     </row>
-    <row r="238" spans="1:32" s="16" customFormat="1">
+    <row r="238" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="30">
         <v>6</v>
       </c>
@@ -7692,7 +7692,7 @@
       <c r="AE238" s="13"/>
       <c r="AF238" s="13"/>
     </row>
-    <row r="239" spans="1:32" s="16" customFormat="1">
+    <row r="239" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="30">
         <v>7</v>
       </c>
@@ -7706,7 +7706,7 @@
       <c r="AE239" s="13"/>
       <c r="AF239" s="13"/>
     </row>
-    <row r="240" spans="1:32" s="16" customFormat="1">
+    <row r="240" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="30">
         <v>8</v>
       </c>
@@ -7720,7 +7720,7 @@
       <c r="AE240" s="13"/>
       <c r="AF240" s="13"/>
     </row>
-    <row r="241" spans="1:32" s="16" customFormat="1">
+    <row r="241" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="30">
         <v>9</v>
       </c>
@@ -7734,7 +7734,7 @@
       <c r="AE241" s="13"/>
       <c r="AF241" s="13"/>
     </row>
-    <row r="242" spans="1:32" s="16" customFormat="1">
+    <row r="242" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="30">
         <v>10</v>
       </c>
@@ -7748,7 +7748,7 @@
       <c r="AE242" s="13"/>
       <c r="AF242" s="13"/>
     </row>
-    <row r="243" spans="1:32" s="16" customFormat="1">
+    <row r="243" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="30">
         <v>11</v>
       </c>
@@ -7762,7 +7762,7 @@
       <c r="AE243" s="13"/>
       <c r="AF243" s="13"/>
     </row>
-    <row r="244" spans="1:32" s="16" customFormat="1">
+    <row r="244" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="30">
         <v>12</v>
       </c>
@@ -7776,7 +7776,7 @@
       <c r="AE244" s="13"/>
       <c r="AF244" s="13"/>
     </row>
-    <row r="245" spans="1:32" s="16" customFormat="1">
+    <row r="245" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="30">
         <v>13</v>
       </c>
@@ -7790,7 +7790,7 @@
       <c r="AE245" s="13"/>
       <c r="AF245" s="13"/>
     </row>
-    <row r="246" spans="1:32" s="16" customFormat="1">
+    <row r="246" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="30">
         <v>14</v>
       </c>
@@ -7804,7 +7804,7 @@
       <c r="AE246" s="13"/>
       <c r="AF246" s="13"/>
     </row>
-    <row r="247" spans="1:32" s="16" customFormat="1">
+    <row r="247" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="30">
         <v>15</v>
       </c>
@@ -7818,7 +7818,7 @@
       <c r="AE247" s="13"/>
       <c r="AF247" s="13"/>
     </row>
-    <row r="248" spans="1:32" s="16" customFormat="1">
+    <row r="248" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="30">
         <v>16</v>
       </c>
@@ -7832,7 +7832,7 @@
       <c r="AE248" s="13"/>
       <c r="AF248" s="13"/>
     </row>
-    <row r="249" spans="1:32" s="16" customFormat="1">
+    <row r="249" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="30">
         <v>17</v>
       </c>
@@ -7846,7 +7846,7 @@
       <c r="AE249" s="13"/>
       <c r="AF249" s="13"/>
     </row>
-    <row r="250" spans="1:32" s="16" customFormat="1">
+    <row r="250" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="30">
         <v>18</v>
       </c>
@@ -7860,7 +7860,7 @@
       <c r="AE250" s="13"/>
       <c r="AF250" s="13"/>
     </row>
-    <row r="251" spans="1:32" s="16" customFormat="1">
+    <row r="251" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="30">
         <v>19</v>
       </c>
@@ -7874,7 +7874,7 @@
       <c r="AE251" s="13"/>
       <c r="AF251" s="13"/>
     </row>
-    <row r="252" spans="1:32" s="16" customFormat="1">
+    <row r="252" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="30">
         <v>20</v>
       </c>
@@ -7888,7 +7888,7 @@
       <c r="AE252" s="13"/>
       <c r="AF252" s="13"/>
     </row>
-    <row r="253" spans="1:32" s="16" customFormat="1">
+    <row r="253" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="30">
         <v>21</v>
       </c>
@@ -7902,7 +7902,7 @@
       <c r="AE253" s="13"/>
       <c r="AF253" s="13"/>
     </row>
-    <row r="254" spans="1:32" s="16" customFormat="1">
+    <row r="254" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="30">
         <v>22</v>
       </c>
@@ -7916,7 +7916,7 @@
       <c r="AE254" s="13"/>
       <c r="AF254" s="13"/>
     </row>
-    <row r="255" spans="1:32" s="16" customFormat="1">
+    <row r="255" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="30">
         <v>23</v>
       </c>
@@ -7930,7 +7930,7 @@
       <c r="AE255" s="13"/>
       <c r="AF255" s="13"/>
     </row>
-    <row r="256" spans="1:32" s="16" customFormat="1">
+    <row r="256" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="30">
         <v>24</v>
       </c>
@@ -7944,7 +7944,7 @@
       <c r="AE256" s="13"/>
       <c r="AF256" s="13"/>
     </row>
-    <row r="257" spans="1:32" s="16" customFormat="1">
+    <row r="257" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="30">
         <v>25</v>
       </c>
@@ -7958,7 +7958,7 @@
       <c r="AE257" s="13"/>
       <c r="AF257" s="13"/>
     </row>
-    <row r="258" spans="1:32" s="16" customFormat="1">
+    <row r="258" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="30">
         <v>26</v>
       </c>
@@ -7972,7 +7972,7 @@
       <c r="AE258" s="13"/>
       <c r="AF258" s="13"/>
     </row>
-    <row r="259" spans="1:32" s="16" customFormat="1">
+    <row r="259" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A259" s="30">
         <v>27</v>
       </c>
@@ -7986,7 +7986,7 @@
       <c r="AE259" s="13"/>
       <c r="AF259" s="13"/>
     </row>
-    <row r="260" spans="1:32" s="16" customFormat="1">
+    <row r="260" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" s="30">
         <v>28</v>
       </c>
@@ -8000,7 +8000,7 @@
       <c r="AE260" s="13"/>
       <c r="AF260" s="13"/>
     </row>
-    <row r="261" spans="1:32" s="16" customFormat="1">
+    <row r="261" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A261" s="30">
         <v>29</v>
       </c>
@@ -8014,7 +8014,7 @@
       <c r="AE261" s="13"/>
       <c r="AF261" s="13"/>
     </row>
-    <row r="262" spans="1:32" s="16" customFormat="1">
+    <row r="262" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="30">
         <v>30</v>
       </c>
@@ -8028,12 +8028,12 @@
       <c r="AE262" s="13"/>
       <c r="AF262" s="13"/>
     </row>
-    <row r="263" spans="1:32" s="16" customFormat="1">
+    <row r="263" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A263" s="30">
         <v>31</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C263" s="18">
         <v>1.1000000000000001</v>
@@ -8042,7 +8042,7 @@
       <c r="AE263" s="13"/>
       <c r="AF263" s="13"/>
     </row>
-    <row r="264" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="264" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="30"/>
       <c r="B264" s="7"/>
       <c r="C264" s="15"/>
@@ -8050,22 +8050,22 @@
       <c r="AE264" s="13"/>
       <c r="AF264" s="13"/>
     </row>
-    <row r="265" spans="1:32" s="16" customFormat="1" ht="30">
+    <row r="265" spans="1:32" s="16" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A265" s="30"/>
       <c r="B265" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C265" s="15"/>
       <c r="AD265" s="13"/>
       <c r="AE265" s="13"/>
       <c r="AF265" s="13"/>
     </row>
-    <row r="266" spans="1:32" s="16" customFormat="1">
+    <row r="266" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="30">
         <v>1</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C266" s="15">
         <v>1</v>
@@ -8074,12 +8074,12 @@
       <c r="AE266" s="13"/>
       <c r="AF266" s="13"/>
     </row>
-    <row r="267" spans="1:32" s="16" customFormat="1">
+    <row r="267" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267" s="30">
         <v>2</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C267" s="28">
         <v>0.9</v>
@@ -8088,7 +8088,7 @@
       <c r="AE267" s="13"/>
       <c r="AF267" s="13"/>
     </row>
-    <row r="268" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="268" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" s="30"/>
       <c r="B268" s="2"/>
       <c r="C268" s="15"/>
@@ -8096,17 +8096,17 @@
       <c r="AE268" s="13"/>
       <c r="AF268" s="13"/>
     </row>
-    <row r="269" spans="1:32" s="16" customFormat="1" ht="30">
+    <row r="269" spans="1:32" s="16" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A269" s="30"/>
       <c r="B269" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C269" s="15"/>
       <c r="AD269" s="13"/>
       <c r="AE269" s="13"/>
       <c r="AF269" s="13"/>
     </row>
-    <row r="270" spans="1:32" s="16" customFormat="1">
+    <row r="270" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="30">
         <v>1</v>
       </c>
@@ -8120,7 +8120,7 @@
       <c r="AE270" s="13"/>
       <c r="AF270" s="13"/>
     </row>
-    <row r="271" spans="1:32" s="16" customFormat="1">
+    <row r="271" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="30">
         <v>2</v>
       </c>
@@ -8134,7 +8134,7 @@
       <c r="AE271" s="13"/>
       <c r="AF271" s="13"/>
     </row>
-    <row r="272" spans="1:32" s="16" customFormat="1">
+    <row r="272" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="30">
         <v>3</v>
       </c>
@@ -8148,12 +8148,12 @@
       <c r="AE272" s="13"/>
       <c r="AF272" s="13"/>
     </row>
-    <row r="273" spans="1:32" s="16" customFormat="1">
+    <row r="273" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="30">
         <v>4</v>
       </c>
       <c r="B273" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C273" s="18">
         <v>1.1000000000000001</v>
@@ -8162,7 +8162,7 @@
       <c r="AE273" s="13"/>
       <c r="AF273" s="13"/>
     </row>
-    <row r="274" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="274" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="30"/>
       <c r="B274" s="10"/>
       <c r="C274" s="15"/>
@@ -8170,22 +8170,22 @@
       <c r="AE274" s="13"/>
       <c r="AF274" s="13"/>
     </row>
-    <row r="275" spans="1:32" s="16" customFormat="1" ht="15">
+    <row r="275" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="30"/>
       <c r="B275" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C275" s="15"/>
       <c r="AD275" s="13"/>
       <c r="AE275" s="13"/>
       <c r="AF275" s="13"/>
     </row>
-    <row r="276" spans="1:32" s="16" customFormat="1">
+    <row r="276" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="30">
         <v>1</v>
       </c>
       <c r="B276" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C276" s="18">
         <v>1</v>
@@ -8194,12 +8194,12 @@
       <c r="AE276" s="13"/>
       <c r="AF276" s="13"/>
     </row>
-    <row r="277" spans="1:32" s="16" customFormat="1">
+    <row r="277" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="30">
         <v>2</v>
       </c>
       <c r="B277" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C277" s="18">
         <v>1</v>
@@ -8208,12 +8208,12 @@
       <c r="AE277" s="13"/>
       <c r="AF277" s="13"/>
     </row>
-    <row r="278" spans="1:32" s="16" customFormat="1">
+    <row r="278" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="30">
         <v>3</v>
       </c>
       <c r="B278" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C278" s="18">
         <v>1</v>
@@ -8222,12 +8222,12 @@
       <c r="AE278" s="13"/>
       <c r="AF278" s="13"/>
     </row>
-    <row r="279" spans="1:32" s="16" customFormat="1" ht="28">
+    <row r="279" spans="1:32" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A279" s="30">
         <v>4</v>
       </c>
       <c r="B279" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C279" s="18">
         <v>1</v>
@@ -8236,12 +8236,12 @@
       <c r="AE279" s="13"/>
       <c r="AF279" s="13"/>
     </row>
-    <row r="280" spans="1:32" s="16" customFormat="1">
+    <row r="280" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="30">
         <v>5</v>
       </c>
       <c r="B280" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C280" s="18">
         <v>1</v>
@@ -8250,12 +8250,12 @@
       <c r="AE280" s="13"/>
       <c r="AF280" s="13"/>
     </row>
-    <row r="281" spans="1:32" s="16" customFormat="1">
+    <row r="281" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="30">
         <v>6</v>
       </c>
       <c r="B281" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C281" s="18">
         <v>1</v>
@@ -8264,12 +8264,12 @@
       <c r="AE281" s="13"/>
       <c r="AF281" s="13"/>
     </row>
-    <row r="282" spans="1:32" s="16" customFormat="1" ht="28">
+    <row r="282" spans="1:32" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A282" s="30">
         <v>7</v>
       </c>
       <c r="B282" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C282" s="18">
         <v>1</v>
@@ -8278,12 +8278,12 @@
       <c r="AE282" s="13"/>
       <c r="AF282" s="13"/>
     </row>
-    <row r="283" spans="1:32" s="16" customFormat="1">
+    <row r="283" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="30">
         <v>8</v>
       </c>
       <c r="B283" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C283" s="18">
         <v>1</v>
@@ -8292,12 +8292,12 @@
       <c r="AE283" s="13"/>
       <c r="AF283" s="13"/>
     </row>
-    <row r="284" spans="1:32" s="16" customFormat="1">
+    <row r="284" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="30">
         <v>9</v>
       </c>
       <c r="B284" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C284" s="18">
         <v>1</v>
@@ -8306,7 +8306,7 @@
       <c r="AE284" s="13"/>
       <c r="AF284" s="13"/>
     </row>
-    <row r="285" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="285" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A285" s="30"/>
       <c r="B285" s="2"/>
       <c r="C285" s="15"/>
@@ -8314,17 +8314,17 @@
       <c r="AE285" s="13"/>
       <c r="AF285" s="13"/>
     </row>
-    <row r="286" spans="1:32" s="16" customFormat="1" ht="15">
+    <row r="286" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="30"/>
       <c r="B286" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C286" s="15"/>
       <c r="AD286" s="13"/>
       <c r="AE286" s="13"/>
       <c r="AF286" s="13"/>
     </row>
-    <row r="287" spans="1:32" s="16" customFormat="1">
+    <row r="287" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="30">
         <v>1</v>
       </c>
@@ -8338,7 +8338,7 @@
       <c r="AE287" s="13"/>
       <c r="AF287" s="13"/>
     </row>
-    <row r="288" spans="1:32" s="16" customFormat="1">
+    <row r="288" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="30">
         <v>2</v>
       </c>
@@ -8352,7 +8352,7 @@
       <c r="AE288" s="13"/>
       <c r="AF288" s="13"/>
     </row>
-    <row r="289" spans="1:32" s="16" customFormat="1">
+    <row r="289" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="30">
         <v>3</v>
       </c>
@@ -8366,7 +8366,7 @@
       <c r="AE289" s="13"/>
       <c r="AF289" s="13"/>
     </row>
-    <row r="290" spans="1:32" s="16" customFormat="1">
+    <row r="290" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="30">
         <v>4</v>
       </c>
@@ -8380,7 +8380,7 @@
       <c r="AE290" s="13"/>
       <c r="AF290" s="13"/>
     </row>
-    <row r="291" spans="1:32" s="16" customFormat="1">
+    <row r="291" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" s="30">
         <v>5</v>
       </c>
@@ -8394,7 +8394,7 @@
       <c r="AE291" s="13"/>
       <c r="AF291" s="13"/>
     </row>
-    <row r="292" spans="1:32" s="16" customFormat="1">
+    <row r="292" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="30">
         <v>6</v>
       </c>
@@ -8408,7 +8408,7 @@
       <c r="AE292" s="13"/>
       <c r="AF292" s="13"/>
     </row>
-    <row r="293" spans="1:32" s="16" customFormat="1">
+    <row r="293" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="30">
         <v>7</v>
       </c>
@@ -8422,7 +8422,7 @@
       <c r="AE293" s="13"/>
       <c r="AF293" s="13"/>
     </row>
-    <row r="294" spans="1:32" s="16" customFormat="1">
+    <row r="294" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="30">
         <v>8</v>
       </c>
@@ -8436,7 +8436,7 @@
       <c r="AE294" s="13"/>
       <c r="AF294" s="13"/>
     </row>
-    <row r="295" spans="1:32" s="16" customFormat="1">
+    <row r="295" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="30">
         <v>9</v>
       </c>
@@ -8450,7 +8450,7 @@
       <c r="AE295" s="13"/>
       <c r="AF295" s="13"/>
     </row>
-    <row r="296" spans="1:32" s="16" customFormat="1">
+    <row r="296" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="30">
         <v>10</v>
       </c>
@@ -8464,7 +8464,7 @@
       <c r="AE296" s="13"/>
       <c r="AF296" s="13"/>
     </row>
-    <row r="297" spans="1:32" s="16" customFormat="1">
+    <row r="297" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="30">
         <v>11</v>
       </c>
@@ -8478,7 +8478,7 @@
       <c r="AE297" s="13"/>
       <c r="AF297" s="13"/>
     </row>
-    <row r="298" spans="1:32" s="16" customFormat="1">
+    <row r="298" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="30">
         <v>12</v>
       </c>
@@ -8492,7 +8492,7 @@
       <c r="AE298" s="13"/>
       <c r="AF298" s="13"/>
     </row>
-    <row r="299" spans="1:32" s="16" customFormat="1">
+    <row r="299" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="30">
         <v>13</v>
       </c>
@@ -8506,7 +8506,7 @@
       <c r="AE299" s="13"/>
       <c r="AF299" s="13"/>
     </row>
-    <row r="300" spans="1:32" s="16" customFormat="1">
+    <row r="300" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300" s="30">
         <v>14</v>
       </c>
@@ -8520,7 +8520,7 @@
       <c r="AE300" s="13"/>
       <c r="AF300" s="13"/>
     </row>
-    <row r="301" spans="1:32" s="16" customFormat="1">
+    <row r="301" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="30">
         <v>15</v>
       </c>
@@ -8534,7 +8534,7 @@
       <c r="AE301" s="13"/>
       <c r="AF301" s="13"/>
     </row>
-    <row r="302" spans="1:32" s="16" customFormat="1">
+    <row r="302" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="30">
         <v>16</v>
       </c>
@@ -8548,7 +8548,7 @@
       <c r="AE302" s="13"/>
       <c r="AF302" s="13"/>
     </row>
-    <row r="303" spans="1:32" s="16" customFormat="1">
+    <row r="303" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="30">
         <v>17</v>
       </c>
@@ -8562,7 +8562,7 @@
       <c r="AE303" s="13"/>
       <c r="AF303" s="13"/>
     </row>
-    <row r="304" spans="1:32" s="16" customFormat="1">
+    <row r="304" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="30">
         <v>18</v>
       </c>
@@ -8576,12 +8576,12 @@
       <c r="AE304" s="13"/>
       <c r="AF304" s="13"/>
     </row>
-    <row r="305" spans="1:32" s="16" customFormat="1">
+    <row r="305" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="30">
         <v>19</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C305" s="15">
         <v>0.8</v>
@@ -8590,7 +8590,7 @@
       <c r="AE305" s="13"/>
       <c r="AF305" s="13"/>
     </row>
-    <row r="306" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="306" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A306" s="30"/>
       <c r="B306" s="10"/>
       <c r="C306" s="15"/>
@@ -8598,17 +8598,17 @@
       <c r="AE306" s="13"/>
       <c r="AF306" s="13"/>
     </row>
-    <row r="307" spans="1:32" s="16" customFormat="1" ht="15">
+    <row r="307" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="30"/>
       <c r="B307" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C307" s="15"/>
       <c r="AD307" s="13"/>
       <c r="AE307" s="13"/>
       <c r="AF307" s="13"/>
     </row>
-    <row r="308" spans="1:32" s="16" customFormat="1">
+    <row r="308" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="30">
         <v>1</v>
       </c>
@@ -8622,12 +8622,12 @@
       <c r="AE308" s="13"/>
       <c r="AF308" s="13"/>
     </row>
-    <row r="309" spans="1:32" s="16" customFormat="1">
+    <row r="309" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="30">
         <v>2</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C309" s="15">
         <v>1.1000000000000001</v>
@@ -8636,12 +8636,12 @@
       <c r="AE309" s="13"/>
       <c r="AF309" s="13"/>
     </row>
-    <row r="310" spans="1:32" s="16" customFormat="1">
+    <row r="310" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="30">
         <v>3</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="C310" s="15">
         <v>1.2</v>
@@ -8650,7 +8650,7 @@
       <c r="AE310" s="13"/>
       <c r="AF310" s="13"/>
     </row>
-    <row r="311" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="311" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A311" s="30"/>
       <c r="B311" s="2"/>
       <c r="C311" s="15"/>
@@ -8658,22 +8658,22 @@
       <c r="AE311" s="13"/>
       <c r="AF311" s="13"/>
     </row>
-    <row r="312" spans="1:32" s="16" customFormat="1" ht="15">
+    <row r="312" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="30"/>
       <c r="B312" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C312" s="15"/>
       <c r="AD312" s="13"/>
       <c r="AE312" s="13"/>
       <c r="AF312" s="13"/>
     </row>
-    <row r="313" spans="1:32" s="16" customFormat="1">
+    <row r="313" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="30">
         <v>1</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C313" s="15">
         <v>0.8</v>
@@ -8682,12 +8682,12 @@
       <c r="AE313" s="13"/>
       <c r="AF313" s="13"/>
     </row>
-    <row r="314" spans="1:32" s="16" customFormat="1" ht="28">
+    <row r="314" spans="1:32" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A314" s="30">
         <v>2</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C314" s="15">
         <v>1</v>
@@ -8696,12 +8696,12 @@
       <c r="AE314" s="13"/>
       <c r="AF314" s="13"/>
     </row>
-    <row r="315" spans="1:32" s="16" customFormat="1" ht="28">
+    <row r="315" spans="1:32" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A315" s="30">
         <v>3</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C315" s="15">
         <v>1.2</v>
@@ -8710,12 +8710,12 @@
       <c r="AE315" s="13"/>
       <c r="AF315" s="13"/>
     </row>
-    <row r="316" spans="1:32" s="16" customFormat="1" ht="28">
+    <row r="316" spans="1:32" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A316" s="30">
         <v>4</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C316" s="15">
         <v>1.5</v>
@@ -8724,12 +8724,12 @@
       <c r="AE316" s="13"/>
       <c r="AF316" s="13"/>
     </row>
-    <row r="317" spans="1:32" s="16" customFormat="1" ht="28">
+    <row r="317" spans="1:32" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A317" s="30">
         <v>5</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C317" s="15">
         <v>2</v>
@@ -8738,12 +8738,12 @@
       <c r="AE317" s="13"/>
       <c r="AF317" s="13"/>
     </row>
-    <row r="318" spans="1:32" s="16" customFormat="1" ht="28">
+    <row r="318" spans="1:32" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A318" s="30">
         <v>6</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C318" s="15">
         <v>2.2000000000000002</v>
@@ -8752,12 +8752,12 @@
       <c r="AE318" s="13"/>
       <c r="AF318" s="13"/>
     </row>
-    <row r="319" spans="1:32" s="16" customFormat="1" ht="28">
+    <row r="319" spans="1:32" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A319" s="30">
         <v>7</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C319" s="15">
         <v>2.5</v>
@@ -8766,12 +8766,12 @@
       <c r="AE319" s="13"/>
       <c r="AF319" s="13"/>
     </row>
-    <row r="320" spans="1:32" s="16" customFormat="1">
+    <row r="320" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A320" s="30">
         <v>8</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C320" s="15">
         <v>3</v>
@@ -8780,7 +8780,7 @@
       <c r="AE320" s="13"/>
       <c r="AF320" s="13"/>
     </row>
-    <row r="321" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="321" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A321" s="30"/>
       <c r="B321" s="4"/>
       <c r="C321" s="15"/>
@@ -8788,7 +8788,7 @@
       <c r="AE321" s="13"/>
       <c r="AF321" s="13"/>
     </row>
-    <row r="322" spans="1:32" s="16" customFormat="1" ht="14.25" customHeight="1">
+    <row r="322" spans="1:32" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="30"/>
       <c r="B322" s="9" t="s">
         <v>1</v>
@@ -8798,22 +8798,22 @@
       <c r="AE322" s="13"/>
       <c r="AF322" s="13"/>
     </row>
-    <row r="323" spans="1:32" s="16" customFormat="1">
+    <row r="323" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="30">
         <v>1</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C323" s="15"/>
       <c r="AD323" s="13"/>
       <c r="AE323" s="13"/>
       <c r="AF323" s="13"/>
     </row>
-    <row r="324" spans="1:32" s="16" customFormat="1">
+    <row r="324" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="30"/>
       <c r="B324" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C324" s="18">
         <v>0.99</v>
@@ -8822,22 +8822,22 @@
       <c r="AE324" s="13"/>
       <c r="AF324" s="13"/>
     </row>
-    <row r="325" spans="1:32" s="16" customFormat="1">
+    <row r="325" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" s="30">
         <v>2</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C325" s="18"/>
       <c r="AD325" s="13"/>
       <c r="AE325" s="13"/>
       <c r="AF325" s="13"/>
     </row>
-    <row r="326" spans="1:32" s="16" customFormat="1">
+    <row r="326" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A326" s="30"/>
       <c r="B326" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C326" s="18">
         <v>0.99</v>
@@ -8846,22 +8846,22 @@
       <c r="AE326" s="13"/>
       <c r="AF326" s="13"/>
     </row>
-    <row r="327" spans="1:32" s="16" customFormat="1">
+    <row r="327" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="30">
         <v>3</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C327" s="18"/>
       <c r="AD327" s="13"/>
       <c r="AE327" s="13"/>
       <c r="AF327" s="13"/>
     </row>
-    <row r="328" spans="1:32" s="16" customFormat="1">
+    <row r="328" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="30"/>
       <c r="B328" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C328" s="18">
         <v>0.99</v>
@@ -8870,22 +8870,22 @@
       <c r="AE328" s="13"/>
       <c r="AF328" s="13"/>
     </row>
-    <row r="329" spans="1:32" s="16" customFormat="1">
+    <row r="329" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A329" s="30">
         <v>4</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C329" s="18"/>
       <c r="AD329" s="13"/>
       <c r="AE329" s="13"/>
       <c r="AF329" s="13"/>
     </row>
-    <row r="330" spans="1:32" s="16" customFormat="1">
+    <row r="330" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" s="30"/>
       <c r="B330" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C330" s="18">
         <v>0.98</v>
@@ -8894,22 +8894,22 @@
       <c r="AE330" s="13"/>
       <c r="AF330" s="13"/>
     </row>
-    <row r="331" spans="1:32" s="16" customFormat="1">
+    <row r="331" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A331" s="30">
         <v>5</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C331" s="18"/>
       <c r="AD331" s="13"/>
       <c r="AE331" s="13"/>
       <c r="AF331" s="13"/>
     </row>
-    <row r="332" spans="1:32" s="16" customFormat="1">
+    <row r="332" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" s="30"/>
       <c r="B332" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C332" s="18">
         <v>0.98</v>
@@ -8918,22 +8918,22 @@
       <c r="AE332" s="13"/>
       <c r="AF332" s="13"/>
     </row>
-    <row r="333" spans="1:32" s="16" customFormat="1">
+    <row r="333" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A333" s="30">
         <v>6</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C333" s="18"/>
       <c r="AD333" s="13"/>
       <c r="AE333" s="13"/>
       <c r="AF333" s="13"/>
     </row>
-    <row r="334" spans="1:32" s="16" customFormat="1">
+    <row r="334" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" s="30"/>
       <c r="B334" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C334" s="18">
         <v>0.99</v>
@@ -8942,7 +8942,7 @@
       <c r="AE334" s="13"/>
       <c r="AF334" s="13"/>
     </row>
-    <row r="335" spans="1:32" s="16" customFormat="1" ht="15" thickBot="1">
+    <row r="335" spans="1:32" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A335" s="30"/>
       <c r="B335" s="12"/>
       <c r="C335" s="18"/>
@@ -8950,7 +8950,7 @@
       <c r="AE335" s="13"/>
       <c r="AF335" s="13"/>
     </row>
-    <row r="337" spans="1:32" s="16" customFormat="1" ht="18">
+    <row r="337" spans="1:32" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A337" s="30"/>
       <c r="B337" s="14"/>
       <c r="D337" s="20"/>
@@ -8968,7 +8968,7 @@
       <c r="AE337" s="13"/>
       <c r="AF337" s="13"/>
     </row>
-    <row r="338" spans="1:32" s="16" customFormat="1">
+    <row r="338" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="30"/>
       <c r="B338"/>
       <c r="D338" s="20"/>
@@ -8979,7 +8979,7 @@
       <c r="AE338" s="13"/>
       <c r="AF338" s="13"/>
     </row>
-    <row r="339" spans="1:32" s="16" customFormat="1" ht="18">
+    <row r="339" spans="1:32" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A339" s="30"/>
       <c r="B339" s="14"/>
       <c r="D339" s="20"/>
@@ -8990,15 +8990,15 @@
       <c r="AE339" s="13"/>
       <c r="AF339" s="13"/>
     </row>
-    <row r="342" spans="1:32" ht="20">
+    <row r="342" spans="1:32" ht="21" x14ac:dyDescent="0.25">
       <c r="B342" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="343" spans="1:32" s="16" customFormat="1" ht="18">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="343" spans="1:32" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A343" s="30"/>
       <c r="B343" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C343" s="17">
         <v>80</v>
@@ -9007,10 +9007,10 @@
       <c r="AE343" s="13"/>
       <c r="AF343" s="13"/>
     </row>
-    <row r="344" spans="1:32" s="16" customFormat="1" ht="18">
+    <row r="344" spans="1:32" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A344" s="30"/>
       <c r="B344" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C344" s="17">
         <v>2</v>
@@ -9034,10 +9034,5 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/public/local/fixtures/calculator/Технадзор контроль калькуляторы.xlsx
+++ b/public/local/fixtures/calculator/Технадзор контроль калькуляторы.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="37480" windowHeight="23540" activeTab="1"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="37480" windowHeight="23540"/>
   </bookViews>
   <sheets>
     <sheet name="Технадзор одного здания" sheetId="3" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Московская область</t>
   </si>
   <si>
-    <t>Санкт-Петерьборг</t>
-  </si>
-  <si>
     <t>Ленинградская область</t>
   </si>
   <si>
@@ -595,6 +592,9 @@
   </si>
   <si>
     <t>Расстояние между объектами 0,5-3 км</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург</t>
   </si>
 </sst>
 </file>
@@ -1696,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF237"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="4" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="15"/>
     </row>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" s="15"/>
     </row>
@@ -1764,7 +1764,7 @@
     <row r="9" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="30"/>
       <c r="B9" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="15"/>
       <c r="AD9" s="13"/>
@@ -1804,7 +1804,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="C12" s="15">
         <v>2</v>
@@ -1818,7 +1818,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="15">
         <v>2</v>
@@ -1832,7 +1832,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="15">
         <v>2.2000000000000002</v>
@@ -1846,7 +1846,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="15">
         <v>2.5</v>
@@ -1860,7 +1860,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="15">
         <v>3</v>
@@ -1874,7 +1874,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="15">
         <v>2</v>
@@ -1888,7 +1888,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="15">
         <v>2</v>
@@ -1902,7 +1902,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="15">
         <v>2</v>
@@ -1916,7 +1916,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="15">
         <v>2</v>
@@ -1930,7 +1930,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="15">
         <v>1.8</v>
@@ -1944,7 +1944,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="15">
         <v>2.5</v>
@@ -1958,7 +1958,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="15">
         <v>1.2</v>
@@ -1972,7 +1972,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="15">
         <v>2.2000000000000002</v>
@@ -1986,7 +1986,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="15">
         <v>1.5</v>
@@ -2000,7 +2000,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="15">
         <v>1.8</v>
@@ -2014,7 +2014,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="15">
         <v>2</v>
@@ -2028,7 +2028,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="15">
         <v>3</v>
@@ -2042,7 +2042,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="15">
         <v>3</v>
@@ -2056,7 +2056,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="15">
         <v>1.5</v>
@@ -2070,7 +2070,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="15">
         <v>2</v>
@@ -2084,7 +2084,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="15">
         <v>2.5</v>
@@ -2098,7 +2098,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="15">
         <v>2</v>
@@ -2112,7 +2112,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="15">
         <v>2</v>
@@ -2126,7 +2126,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="15">
         <v>2</v>
@@ -2140,7 +2140,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="15">
         <v>1.5</v>
@@ -2154,7 +2154,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="15">
         <v>3</v>
@@ -2168,7 +2168,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="15">
         <v>2</v>
@@ -2182,7 +2182,7 @@
         <v>30</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="15">
         <v>2</v>
@@ -2196,7 +2196,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="15">
         <v>2.5</v>
@@ -2210,7 +2210,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="15">
         <v>2</v>
@@ -2224,7 +2224,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="15">
         <v>2.5</v>
@@ -2238,7 +2238,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" s="15">
         <v>2</v>
@@ -2252,7 +2252,7 @@
         <v>35</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="15">
         <v>2</v>
@@ -2266,7 +2266,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="15">
         <v>2.5</v>
@@ -2280,7 +2280,7 @@
         <v>37</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="15">
         <v>2.2000000000000002</v>
@@ -2294,7 +2294,7 @@
         <v>38</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="15">
         <v>2.5</v>
@@ -2308,7 +2308,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" s="15">
         <v>2</v>
@@ -2322,7 +2322,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C49" s="15">
         <v>2</v>
@@ -2336,7 +2336,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50" s="15">
         <v>3</v>
@@ -2350,7 +2350,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" s="15">
         <v>3</v>
@@ -2364,7 +2364,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="15">
         <v>2</v>
@@ -2378,7 +2378,7 @@
         <v>44</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" s="15">
         <v>2.5</v>
@@ -2392,7 +2392,7 @@
         <v>45</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C54" s="15">
         <v>2.5</v>
@@ -2406,7 +2406,7 @@
         <v>46</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C55" s="15">
         <v>2</v>
@@ -2420,7 +2420,7 @@
         <v>47</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C56" s="15">
         <v>2</v>
@@ -2434,7 +2434,7 @@
         <v>48</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C57" s="15">
         <v>2.5</v>
@@ -2448,7 +2448,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C58" s="15">
         <v>2.2999999999999998</v>
@@ -2462,7 +2462,7 @@
         <v>50</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C59" s="15">
         <v>2.2999999999999998</v>
@@ -2476,7 +2476,7 @@
         <v>51</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C60" s="15">
         <v>1.8</v>
@@ -2490,7 +2490,7 @@
         <v>52</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C61" s="15">
         <v>2</v>
@@ -2504,7 +2504,7 @@
         <v>53</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C62" s="15">
         <v>2.5</v>
@@ -2518,7 +2518,7 @@
         <v>54</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C63" s="15">
         <v>3</v>
@@ -2532,7 +2532,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C64" s="15">
         <v>2</v>
@@ -2546,7 +2546,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C65" s="15">
         <v>2.5</v>
@@ -2560,7 +2560,7 @@
         <v>57</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C66" s="15">
         <v>2</v>
@@ -2574,7 +2574,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C67" s="15">
         <v>1.5</v>
@@ -2588,7 +2588,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C68" s="15">
         <v>2</v>
@@ -2602,7 +2602,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C69" s="15">
         <v>2</v>
@@ -2616,7 +2616,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C70" s="15">
         <v>3</v>
@@ -2630,7 +2630,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C71" s="15">
         <v>2.8</v>
@@ -2644,7 +2644,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C72" s="15">
         <v>2.5</v>
@@ -2658,7 +2658,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C73" s="15">
         <v>2</v>
@@ -2672,7 +2672,7 @@
         <v>65</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C74" s="15">
         <v>1.8</v>
@@ -2686,7 +2686,7 @@
         <v>66</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C75" s="15">
         <v>2</v>
@@ -2700,7 +2700,7 @@
         <v>67</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C76" s="15">
         <v>1.8</v>
@@ -2714,7 +2714,7 @@
         <v>68</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C77" s="15">
         <v>2.2000000000000002</v>
@@ -2728,7 +2728,7 @@
         <v>69</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C78" s="15">
         <v>1.5</v>
@@ -2742,7 +2742,7 @@
         <v>70</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C79" s="15">
         <v>2.5</v>
@@ -2756,7 +2756,7 @@
         <v>71</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C80" s="15">
         <v>1.8</v>
@@ -2770,7 +2770,7 @@
         <v>72</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C81" s="15">
         <v>2.5</v>
@@ -2784,7 +2784,7 @@
         <v>73</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C82" s="15">
         <v>2.2000000000000002</v>
@@ -2798,7 +2798,7 @@
         <v>74</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C83" s="15">
         <v>2.5</v>
@@ -2812,7 +2812,7 @@
         <v>75</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C84" s="15">
         <v>2.2000000000000002</v>
@@ -2826,7 +2826,7 @@
         <v>76</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C85" s="15">
         <v>3</v>
@@ -2840,7 +2840,7 @@
         <v>77</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C86" s="15">
         <v>2.8</v>
@@ -2854,7 +2854,7 @@
         <v>78</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C87" s="15">
         <v>2.5</v>
@@ -2868,7 +2868,7 @@
         <v>79</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C88" s="15">
         <v>2.2000000000000002</v>
@@ -2882,7 +2882,7 @@
         <v>80</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C89" s="15">
         <v>2</v>
@@ -2896,7 +2896,7 @@
         <v>81</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C90" s="15">
         <v>2</v>
@@ -2910,7 +2910,7 @@
         <v>82</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C91" s="15">
         <v>3</v>
@@ -2924,7 +2924,7 @@
         <v>83</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C92" s="15">
         <v>2.8</v>
@@ -2938,7 +2938,7 @@
         <v>84</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C93" s="15">
         <v>1.8</v>
@@ -2976,7 +2976,7 @@
     <row r="97" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="30"/>
       <c r="B97" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C97" s="15"/>
       <c r="AD97" s="13"/>
@@ -2988,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C98" s="15">
         <v>1</v>
@@ -3002,7 +3002,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C99" s="15">
         <v>0.95</v>
@@ -3016,7 +3016,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C100" s="15">
         <v>0.85</v>
@@ -3030,7 +3030,7 @@
         <v>4</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C101" s="15">
         <v>0.9</v>
@@ -3044,7 +3044,7 @@
         <v>5</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C102" s="15">
         <v>0.8</v>
@@ -3058,7 +3058,7 @@
         <v>6</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C103" s="15">
         <v>0.8</v>
@@ -3072,7 +3072,7 @@
         <v>7</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C104" s="15">
         <v>0.8</v>
@@ -3086,7 +3086,7 @@
         <v>8</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C105" s="15">
         <v>1.1000000000000001</v>
@@ -3100,7 +3100,7 @@
         <v>9</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C106" s="15">
         <v>1.1000000000000001</v>
@@ -3114,7 +3114,7 @@
         <v>10</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C107" s="15">
         <v>1.1000000000000001</v>
@@ -3128,7 +3128,7 @@
         <v>11</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C108" s="15">
         <v>1.1000000000000001</v>
@@ -3142,7 +3142,7 @@
         <v>12</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C109" s="15">
         <v>0.8</v>
@@ -3156,7 +3156,7 @@
         <v>13</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C110" s="15">
         <v>1</v>
@@ -3170,7 +3170,7 @@
         <v>14</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C111" s="15">
         <v>1</v>
@@ -3184,7 +3184,7 @@
         <v>15</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C112" s="15">
         <v>1</v>
@@ -3198,7 +3198,7 @@
         <v>16</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C113" s="15">
         <v>0.8</v>
@@ -3212,7 +3212,7 @@
         <v>17</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C114" s="15">
         <v>1</v>
@@ -3226,7 +3226,7 @@
         <v>18</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C115" s="15">
         <v>1</v>
@@ -3240,7 +3240,7 @@
         <v>19</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C116" s="15">
         <v>1</v>
@@ -3260,7 +3260,7 @@
     <row r="118" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="30"/>
       <c r="B118" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C118" s="15"/>
       <c r="AD118" s="13"/>
@@ -3272,7 +3272,7 @@
         <v>1</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C119" s="15">
         <v>1</v>
@@ -3286,7 +3286,7 @@
         <v>2</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C120" s="15">
         <v>1</v>
@@ -3300,7 +3300,7 @@
         <v>3</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C121" s="15">
         <v>1</v>
@@ -3314,7 +3314,7 @@
         <v>4</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C122" s="15">
         <v>0.9</v>
@@ -3334,7 +3334,7 @@
     <row r="124" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="30"/>
       <c r="B124" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C124" s="15"/>
       <c r="AD124" s="13"/>
@@ -3352,7 +3352,7 @@
     <row r="126" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="30"/>
       <c r="B126" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C126" s="15"/>
       <c r="AD126" s="13"/>
@@ -3370,7 +3370,7 @@
     <row r="128" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="30"/>
       <c r="B128" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C128" s="15"/>
       <c r="AD128" s="13"/>
@@ -3802,7 +3802,7 @@
         <v>31</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C159" s="15">
         <v>3</v>
@@ -3822,7 +3822,7 @@
     <row r="161" spans="1:32" s="16" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A161" s="30"/>
       <c r="B161" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C161" s="15"/>
       <c r="AD161" s="13"/>
@@ -3834,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C162" s="15">
         <v>1</v>
@@ -3848,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C163" s="15">
         <v>0.9</v>
@@ -3868,7 +3868,7 @@
     <row r="165" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="30"/>
       <c r="B165" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C165" s="15"/>
       <c r="AD165" s="13"/>
@@ -3922,7 +3922,7 @@
         <v>4</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C169" s="15">
         <v>1.2</v>
@@ -3942,7 +3942,7 @@
     <row r="171" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="30"/>
       <c r="B171" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C171" s="15"/>
       <c r="AD171" s="13"/>
@@ -3954,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C172" s="18">
         <v>1</v>
@@ -3968,7 +3968,7 @@
         <v>2</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C173" s="18">
         <v>1</v>
@@ -3982,7 +3982,7 @@
         <v>3</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C174" s="18">
         <v>1</v>
@@ -3996,7 +3996,7 @@
         <v>4</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C175" s="18">
         <v>1</v>
@@ -4010,7 +4010,7 @@
         <v>5</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C176" s="18">
         <v>1</v>
@@ -4024,7 +4024,7 @@
         <v>6</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C177" s="18">
         <v>1</v>
@@ -4038,7 +4038,7 @@
         <v>7</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C178" s="18">
         <v>1</v>
@@ -4052,7 +4052,7 @@
         <v>8</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C179" s="18">
         <v>1</v>
@@ -4066,7 +4066,7 @@
         <v>9</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C180" s="18">
         <v>1</v>
@@ -4086,7 +4086,7 @@
     <row r="182" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="30"/>
       <c r="B182" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C182" s="15"/>
       <c r="AD182" s="13"/>
@@ -4350,7 +4350,7 @@
         <v>19</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C201" s="15">
         <v>0.8</v>
@@ -4370,7 +4370,7 @@
     <row r="203" spans="1:32" s="34" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="32"/>
       <c r="B203" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C203" s="28"/>
       <c r="AD203" s="35"/>
@@ -4388,7 +4388,7 @@
     <row r="205" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="30"/>
       <c r="B205" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C205" s="15"/>
       <c r="AD205" s="13"/>
@@ -4400,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C206" s="15">
         <v>0.8</v>
@@ -4414,7 +4414,7 @@
         <v>2</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C207" s="15">
         <v>1</v>
@@ -4428,7 +4428,7 @@
         <v>3</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C208" s="15">
         <v>1.2</v>
@@ -4442,7 +4442,7 @@
         <v>4</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C209" s="15">
         <v>1.5</v>
@@ -4456,7 +4456,7 @@
         <v>5</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C210" s="15">
         <v>2</v>
@@ -4470,7 +4470,7 @@
         <v>6</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C211" s="15">
         <v>2.2000000000000002</v>
@@ -4484,7 +4484,7 @@
         <v>7</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C212" s="15">
         <v>2.5</v>
@@ -4498,7 +4498,7 @@
         <v>8</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C213" s="15">
         <v>3</v>
@@ -4530,7 +4530,7 @@
         <v>1</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C216" s="15"/>
       <c r="AD216" s="13"/>
@@ -4540,7 +4540,7 @@
     <row r="217" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="30"/>
       <c r="B217" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C217" s="18">
         <v>0.99</v>
@@ -4554,7 +4554,7 @@
         <v>2</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C218" s="18"/>
       <c r="AD218" s="13"/>
@@ -4564,7 +4564,7 @@
     <row r="219" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="30"/>
       <c r="B219" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C219" s="18">
         <v>0.99</v>
@@ -4578,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C220" s="18"/>
       <c r="AD220" s="13"/>
@@ -4588,7 +4588,7 @@
     <row r="221" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="30"/>
       <c r="B221" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C221" s="18">
         <v>0.99</v>
@@ -4602,7 +4602,7 @@
         <v>4</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C222" s="18"/>
       <c r="AD222" s="13"/>
@@ -4612,7 +4612,7 @@
     <row r="223" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="30"/>
       <c r="B223" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C223" s="18">
         <v>0.98</v>
@@ -4626,7 +4626,7 @@
         <v>5</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C224" s="18"/>
       <c r="AD224" s="13"/>
@@ -4636,7 +4636,7 @@
     <row r="225" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="30"/>
       <c r="B225" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C225" s="18">
         <v>0.98</v>
@@ -4650,7 +4650,7 @@
         <v>6</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C226" s="18"/>
       <c r="AD226" s="13"/>
@@ -4660,7 +4660,7 @@
     <row r="227" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="30"/>
       <c r="B227" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C227" s="18">
         <v>0.99</v>
@@ -4719,13 +4719,13 @@
     </row>
     <row r="235" spans="1:32" ht="21" x14ac:dyDescent="0.25">
       <c r="B235" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="236" spans="1:32" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A236" s="30"/>
       <c r="B236" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C236" s="17">
         <v>80</v>
@@ -4737,7 +4737,7 @@
     <row r="237" spans="1:32" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A237" s="30"/>
       <c r="B237" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C237" s="17">
         <v>2</v>
@@ -4768,8 +4768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="D311" sqref="D311"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="15"/>
     </row>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" s="15"/>
     </row>
@@ -5908,7 +5908,7 @@
         <v>100</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C106" s="19">
         <v>3</v>
@@ -5925,7 +5925,7 @@
     <row r="108" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="30"/>
       <c r="B108" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C108" s="15"/>
       <c r="AD108" s="13"/>
@@ -5965,7 +5965,7 @@
         <v>3</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="C111" s="15">
         <v>2</v>
@@ -5979,7 +5979,7 @@
         <v>4</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C112" s="15">
         <v>2</v>
@@ -5993,7 +5993,7 @@
         <v>5</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" s="15">
         <v>2.2000000000000002</v>
@@ -6007,7 +6007,7 @@
         <v>6</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C114" s="15">
         <v>2.5</v>
@@ -6021,7 +6021,7 @@
         <v>7</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" s="15">
         <v>3</v>
@@ -6035,7 +6035,7 @@
         <v>8</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C116" s="15">
         <v>2</v>
@@ -6049,7 +6049,7 @@
         <v>9</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C117" s="15">
         <v>2</v>
@@ -6063,7 +6063,7 @@
         <v>10</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C118" s="15">
         <v>2</v>
@@ -6077,7 +6077,7 @@
         <v>11</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C119" s="15">
         <v>2</v>
@@ -6091,7 +6091,7 @@
         <v>12</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C120" s="15">
         <v>1.8</v>
@@ -6105,7 +6105,7 @@
         <v>13</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C121" s="15">
         <v>2.5</v>
@@ -6119,7 +6119,7 @@
         <v>14</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C122" s="15">
         <v>1.2</v>
@@ -6133,7 +6133,7 @@
         <v>15</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C123" s="15">
         <v>2.2000000000000002</v>
@@ -6147,7 +6147,7 @@
         <v>16</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C124" s="15">
         <v>1.5</v>
@@ -6161,7 +6161,7 @@
         <v>17</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C125" s="15">
         <v>1.8</v>
@@ -6175,7 +6175,7 @@
         <v>18</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C126" s="15">
         <v>2</v>
@@ -6189,7 +6189,7 @@
         <v>19</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C127" s="15">
         <v>3</v>
@@ -6203,7 +6203,7 @@
         <v>20</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C128" s="15">
         <v>3</v>
@@ -6217,7 +6217,7 @@
         <v>21</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C129" s="15">
         <v>1.5</v>
@@ -6231,7 +6231,7 @@
         <v>22</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C130" s="15">
         <v>2</v>
@@ -6245,7 +6245,7 @@
         <v>23</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C131" s="15">
         <v>2.5</v>
@@ -6259,7 +6259,7 @@
         <v>24</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C132" s="15">
         <v>2</v>
@@ -6273,7 +6273,7 @@
         <v>25</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C133" s="15">
         <v>2</v>
@@ -6287,7 +6287,7 @@
         <v>26</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C134" s="15">
         <v>2</v>
@@ -6301,7 +6301,7 @@
         <v>27</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C135" s="15">
         <v>1.5</v>
@@ -6315,7 +6315,7 @@
         <v>28</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C136" s="15">
         <v>3</v>
@@ -6329,7 +6329,7 @@
         <v>29</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C137" s="15">
         <v>2</v>
@@ -6343,7 +6343,7 @@
         <v>30</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C138" s="15">
         <v>2</v>
@@ -6357,7 +6357,7 @@
         <v>31</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C139" s="15">
         <v>2.5</v>
@@ -6371,7 +6371,7 @@
         <v>32</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C140" s="15">
         <v>2</v>
@@ -6385,7 +6385,7 @@
         <v>33</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C141" s="15">
         <v>2.5</v>
@@ -6399,7 +6399,7 @@
         <v>34</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C142" s="15">
         <v>2</v>
@@ -6413,7 +6413,7 @@
         <v>35</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C143" s="15">
         <v>2</v>
@@ -6427,7 +6427,7 @@
         <v>36</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C144" s="15">
         <v>2.5</v>
@@ -6441,7 +6441,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C145" s="15">
         <v>2.2000000000000002</v>
@@ -6455,7 +6455,7 @@
         <v>38</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C146" s="15">
         <v>2.5</v>
@@ -6469,7 +6469,7 @@
         <v>39</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C147" s="15">
         <v>2</v>
@@ -6483,7 +6483,7 @@
         <v>40</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C148" s="15">
         <v>2</v>
@@ -6497,7 +6497,7 @@
         <v>41</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C149" s="15">
         <v>3</v>
@@ -6511,7 +6511,7 @@
         <v>42</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C150" s="15">
         <v>3</v>
@@ -6525,7 +6525,7 @@
         <v>43</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C151" s="15">
         <v>2</v>
@@ -6539,7 +6539,7 @@
         <v>44</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C152" s="15">
         <v>2.5</v>
@@ -6553,7 +6553,7 @@
         <v>45</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C153" s="15">
         <v>2.5</v>
@@ -6567,7 +6567,7 @@
         <v>46</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C154" s="15">
         <v>2</v>
@@ -6581,7 +6581,7 @@
         <v>47</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C155" s="15">
         <v>2</v>
@@ -6595,7 +6595,7 @@
         <v>48</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C156" s="15">
         <v>2.5</v>
@@ -6609,7 +6609,7 @@
         <v>49</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C157" s="15">
         <v>2.2999999999999998</v>
@@ -6623,7 +6623,7 @@
         <v>50</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C158" s="15">
         <v>2.2999999999999998</v>
@@ -6637,7 +6637,7 @@
         <v>51</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C159" s="15">
         <v>1.8</v>
@@ -6651,7 +6651,7 @@
         <v>52</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C160" s="15">
         <v>2</v>
@@ -6665,7 +6665,7 @@
         <v>53</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C161" s="15">
         <v>2.5</v>
@@ -6679,7 +6679,7 @@
         <v>54</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C162" s="15">
         <v>3</v>
@@ -6693,7 +6693,7 @@
         <v>55</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C163" s="15">
         <v>2</v>
@@ -6707,7 +6707,7 @@
         <v>56</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C164" s="15">
         <v>2.5</v>
@@ -6721,7 +6721,7 @@
         <v>57</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C165" s="15">
         <v>2</v>
@@ -6735,7 +6735,7 @@
         <v>58</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C166" s="15">
         <v>1.5</v>
@@ -6749,7 +6749,7 @@
         <v>59</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C167" s="15">
         <v>2</v>
@@ -6763,7 +6763,7 @@
         <v>60</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C168" s="15">
         <v>2</v>
@@ -6777,7 +6777,7 @@
         <v>61</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C169" s="15">
         <v>3</v>
@@ -6791,7 +6791,7 @@
         <v>62</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C170" s="15">
         <v>2.8</v>
@@ -6805,7 +6805,7 @@
         <v>63</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C171" s="15">
         <v>2.5</v>
@@ -6819,7 +6819,7 @@
         <v>64</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C172" s="15">
         <v>2</v>
@@ -6833,7 +6833,7 @@
         <v>65</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C173" s="15">
         <v>1.8</v>
@@ -6847,7 +6847,7 @@
         <v>66</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C174" s="15">
         <v>2</v>
@@ -6861,7 +6861,7 @@
         <v>67</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C175" s="15">
         <v>1.8</v>
@@ -6875,7 +6875,7 @@
         <v>68</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C176" s="15">
         <v>2.2000000000000002</v>
@@ -6889,7 +6889,7 @@
         <v>69</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C177" s="15">
         <v>1.5</v>
@@ -6903,7 +6903,7 @@
         <v>70</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C178" s="15">
         <v>2.5</v>
@@ -6917,7 +6917,7 @@
         <v>71</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C179" s="15">
         <v>1.8</v>
@@ -6931,7 +6931,7 @@
         <v>72</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C180" s="15">
         <v>2.5</v>
@@ -6945,7 +6945,7 @@
         <v>73</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C181" s="15">
         <v>2.2000000000000002</v>
@@ -6959,7 +6959,7 @@
         <v>74</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C182" s="15">
         <v>2.5</v>
@@ -6973,7 +6973,7 @@
         <v>75</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C183" s="15">
         <v>2.2000000000000002</v>
@@ -6987,7 +6987,7 @@
         <v>76</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C184" s="15">
         <v>3</v>
@@ -7001,7 +7001,7 @@
         <v>77</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C185" s="15">
         <v>2.8</v>
@@ -7015,7 +7015,7 @@
         <v>78</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C186" s="15">
         <v>2.5</v>
@@ -7029,7 +7029,7 @@
         <v>79</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C187" s="15">
         <v>2.2000000000000002</v>
@@ -7043,7 +7043,7 @@
         <v>80</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C188" s="15">
         <v>2</v>
@@ -7057,7 +7057,7 @@
         <v>81</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C189" s="15">
         <v>2</v>
@@ -7071,7 +7071,7 @@
         <v>82</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C190" s="15">
         <v>3</v>
@@ -7085,7 +7085,7 @@
         <v>83</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C191" s="15">
         <v>2.8</v>
@@ -7099,7 +7099,7 @@
         <v>84</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C192" s="15">
         <v>1.8</v>
@@ -7119,7 +7119,7 @@
     <row r="194" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="30"/>
       <c r="B194" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C194" s="15"/>
       <c r="AD194" s="13"/>
@@ -7137,7 +7137,7 @@
     <row r="196" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="30"/>
       <c r="B196" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C196" s="15"/>
       <c r="AD196" s="13"/>
@@ -7149,7 +7149,7 @@
         <v>1</v>
       </c>
       <c r="B197" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C197" s="18">
         <v>1.1000000000000001</v>
@@ -7163,7 +7163,7 @@
         <v>2</v>
       </c>
       <c r="B198" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C198" s="18">
         <v>1.1000000000000001</v>
@@ -7177,7 +7177,7 @@
         <v>3</v>
       </c>
       <c r="B199" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C199" s="18">
         <v>1.1000000000000001</v>
@@ -7191,7 +7191,7 @@
         <v>4</v>
       </c>
       <c r="B200" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C200" s="18">
         <v>1.1000000000000001</v>
@@ -7205,7 +7205,7 @@
         <v>5</v>
       </c>
       <c r="B201" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C201" s="18">
         <v>1.1000000000000001</v>
@@ -7219,7 +7219,7 @@
         <v>6</v>
       </c>
       <c r="B202" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C202" s="18">
         <v>1.1000000000000001</v>
@@ -7233,7 +7233,7 @@
         <v>7</v>
       </c>
       <c r="B203" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C203" s="18">
         <v>1.1000000000000001</v>
@@ -7247,7 +7247,7 @@
         <v>8</v>
       </c>
       <c r="B204" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C204" s="18">
         <v>1.1000000000000001</v>
@@ -7261,7 +7261,7 @@
         <v>9</v>
       </c>
       <c r="B205" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C205" s="18">
         <v>1.1000000000000001</v>
@@ -7275,7 +7275,7 @@
         <v>10</v>
       </c>
       <c r="B206" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C206" s="18">
         <v>1.1000000000000001</v>
@@ -7289,7 +7289,7 @@
         <v>11</v>
       </c>
       <c r="B207" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C207" s="18">
         <v>1.1000000000000001</v>
@@ -7303,7 +7303,7 @@
         <v>12</v>
       </c>
       <c r="B208" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C208" s="18">
         <v>1.1000000000000001</v>
@@ -7317,7 +7317,7 @@
         <v>13</v>
       </c>
       <c r="B209" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C209" s="18">
         <v>1.1000000000000001</v>
@@ -7331,7 +7331,7 @@
         <v>14</v>
       </c>
       <c r="B210" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C210" s="18">
         <v>1.1000000000000001</v>
@@ -7345,7 +7345,7 @@
         <v>15</v>
       </c>
       <c r="B211" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C211" s="18">
         <v>1.1000000000000001</v>
@@ -7359,7 +7359,7 @@
         <v>16</v>
       </c>
       <c r="B212" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C212" s="18">
         <v>1.1000000000000001</v>
@@ -7373,7 +7373,7 @@
         <v>17</v>
       </c>
       <c r="B213" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C213" s="18">
         <v>1.1000000000000001</v>
@@ -7387,7 +7387,7 @@
         <v>18</v>
       </c>
       <c r="B214" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C214" s="18">
         <v>1.1000000000000001</v>
@@ -7401,7 +7401,7 @@
         <v>19</v>
       </c>
       <c r="B215" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C215" s="18">
         <v>1.1000000000000001</v>
@@ -7415,7 +7415,7 @@
         <v>20</v>
       </c>
       <c r="B216" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C216" s="18">
         <v>1.1000000000000001</v>
@@ -7429,7 +7429,7 @@
         <v>21</v>
       </c>
       <c r="B217" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C217" s="18">
         <v>1.1000000000000001</v>
@@ -7443,7 +7443,7 @@
         <v>22</v>
       </c>
       <c r="B218" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C218" s="18">
         <v>1.1000000000000001</v>
@@ -7457,7 +7457,7 @@
         <v>23</v>
       </c>
       <c r="B219" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C219" s="18">
         <v>1.1000000000000001</v>
@@ -7471,7 +7471,7 @@
         <v>24</v>
       </c>
       <c r="B220" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C220" s="18">
         <v>1.1000000000000001</v>
@@ -7491,7 +7491,7 @@
     <row r="222" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="30"/>
       <c r="B222" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C222" s="15"/>
       <c r="AD222" s="13"/>
@@ -7503,7 +7503,7 @@
         <v>1</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C223" s="15">
         <v>1</v>
@@ -7517,7 +7517,7 @@
         <v>2</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C224" s="15">
         <v>1</v>
@@ -7531,7 +7531,7 @@
         <v>3</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C225" s="15">
         <v>1</v>
@@ -7545,7 +7545,7 @@
         <v>4</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C226" s="15">
         <v>0.9</v>
@@ -7565,7 +7565,7 @@
     <row r="228" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="30"/>
       <c r="B228" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C228" s="15"/>
       <c r="AD228" s="13"/>
@@ -7583,7 +7583,7 @@
     <row r="230" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="30"/>
       <c r="B230" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C230" s="15"/>
       <c r="AD230" s="13"/>
@@ -7601,7 +7601,7 @@
     <row r="232" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="30"/>
       <c r="B232" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C232" s="15"/>
       <c r="AD232" s="13"/>
@@ -8033,7 +8033,7 @@
         <v>31</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C263" s="18">
         <v>1.1000000000000001</v>
@@ -8053,7 +8053,7 @@
     <row r="265" spans="1:32" s="16" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A265" s="30"/>
       <c r="B265" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C265" s="15"/>
       <c r="AD265" s="13"/>
@@ -8065,7 +8065,7 @@
         <v>1</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C266" s="15">
         <v>1</v>
@@ -8079,7 +8079,7 @@
         <v>2</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C267" s="28">
         <v>0.9</v>
@@ -8099,7 +8099,7 @@
     <row r="269" spans="1:32" s="16" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A269" s="30"/>
       <c r="B269" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C269" s="15"/>
       <c r="AD269" s="13"/>
@@ -8153,7 +8153,7 @@
         <v>4</v>
       </c>
       <c r="B273" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C273" s="18">
         <v>1.1000000000000001</v>
@@ -8173,7 +8173,7 @@
     <row r="275" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="30"/>
       <c r="B275" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C275" s="15"/>
       <c r="AD275" s="13"/>
@@ -8185,7 +8185,7 @@
         <v>1</v>
       </c>
       <c r="B276" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C276" s="18">
         <v>1</v>
@@ -8199,7 +8199,7 @@
         <v>2</v>
       </c>
       <c r="B277" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C277" s="18">
         <v>1</v>
@@ -8213,7 +8213,7 @@
         <v>3</v>
       </c>
       <c r="B278" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C278" s="18">
         <v>1</v>
@@ -8227,7 +8227,7 @@
         <v>4</v>
       </c>
       <c r="B279" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C279" s="18">
         <v>1</v>
@@ -8241,7 +8241,7 @@
         <v>5</v>
       </c>
       <c r="B280" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C280" s="18">
         <v>1</v>
@@ -8255,7 +8255,7 @@
         <v>6</v>
       </c>
       <c r="B281" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C281" s="18">
         <v>1</v>
@@ -8269,7 +8269,7 @@
         <v>7</v>
       </c>
       <c r="B282" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C282" s="18">
         <v>1</v>
@@ -8283,7 +8283,7 @@
         <v>8</v>
       </c>
       <c r="B283" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C283" s="18">
         <v>1</v>
@@ -8297,7 +8297,7 @@
         <v>9</v>
       </c>
       <c r="B284" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C284" s="18">
         <v>1</v>
@@ -8317,7 +8317,7 @@
     <row r="286" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="30"/>
       <c r="B286" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C286" s="15"/>
       <c r="AD286" s="13"/>
@@ -8581,7 +8581,7 @@
         <v>19</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C305" s="15">
         <v>0.8</v>
@@ -8601,7 +8601,7 @@
     <row r="307" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="30"/>
       <c r="B307" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C307" s="15"/>
       <c r="AD307" s="13"/>
@@ -8613,7 +8613,7 @@
         <v>1</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C308" s="15">
         <v>0.9</v>
@@ -8627,7 +8627,7 @@
         <v>2</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C309" s="15">
         <v>1.1000000000000001</v>
@@ -8641,7 +8641,7 @@
         <v>3</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C310" s="15">
         <v>1.2</v>
@@ -8661,7 +8661,7 @@
     <row r="312" spans="1:32" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="30"/>
       <c r="B312" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C312" s="15"/>
       <c r="AD312" s="13"/>
@@ -8673,7 +8673,7 @@
         <v>1</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C313" s="15">
         <v>0.8</v>
@@ -8687,7 +8687,7 @@
         <v>2</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C314" s="15">
         <v>1</v>
@@ -8701,7 +8701,7 @@
         <v>3</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C315" s="15">
         <v>1.2</v>
@@ -8715,7 +8715,7 @@
         <v>4</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C316" s="15">
         <v>1.5</v>
@@ -8729,7 +8729,7 @@
         <v>5</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C317" s="15">
         <v>2</v>
@@ -8743,7 +8743,7 @@
         <v>6</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C318" s="15">
         <v>2.2000000000000002</v>
@@ -8757,7 +8757,7 @@
         <v>7</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C319" s="15">
         <v>2.5</v>
@@ -8771,7 +8771,7 @@
         <v>8</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C320" s="15">
         <v>3</v>
@@ -8803,7 +8803,7 @@
         <v>1</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C323" s="15"/>
       <c r="AD323" s="13"/>
@@ -8813,7 +8813,7 @@
     <row r="324" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="30"/>
       <c r="B324" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C324" s="18">
         <v>0.99</v>
@@ -8827,7 +8827,7 @@
         <v>2</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C325" s="18"/>
       <c r="AD325" s="13"/>
@@ -8837,7 +8837,7 @@
     <row r="326" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A326" s="30"/>
       <c r="B326" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C326" s="18">
         <v>0.99</v>
@@ -8851,7 +8851,7 @@
         <v>3</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C327" s="18"/>
       <c r="AD327" s="13"/>
@@ -8861,7 +8861,7 @@
     <row r="328" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="30"/>
       <c r="B328" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C328" s="18">
         <v>0.99</v>
@@ -8875,7 +8875,7 @@
         <v>4</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C329" s="18"/>
       <c r="AD329" s="13"/>
@@ -8885,7 +8885,7 @@
     <row r="330" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" s="30"/>
       <c r="B330" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C330" s="18">
         <v>0.98</v>
@@ -8899,7 +8899,7 @@
         <v>5</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C331" s="18"/>
       <c r="AD331" s="13"/>
@@ -8909,7 +8909,7 @@
     <row r="332" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" s="30"/>
       <c r="B332" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C332" s="18">
         <v>0.98</v>
@@ -8923,7 +8923,7 @@
         <v>6</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C333" s="18"/>
       <c r="AD333" s="13"/>
@@ -8933,7 +8933,7 @@
     <row r="334" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" s="30"/>
       <c r="B334" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C334" s="18">
         <v>0.99</v>
@@ -8992,13 +8992,13 @@
     </row>
     <row r="342" spans="1:32" ht="21" x14ac:dyDescent="0.25">
       <c r="B342" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="343" spans="1:32" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A343" s="30"/>
       <c r="B343" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C343" s="17">
         <v>80</v>
@@ -9010,7 +9010,7 @@
     <row r="344" spans="1:32" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A344" s="30"/>
       <c r="B344" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C344" s="17">
         <v>2</v>
